--- a/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/Peer-like-similarity/MajorMinor Results/Workbook.xlsx
+++ b/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/Peer-like-similarity/MajorMinor Results/Workbook.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MajorMinor_Results100" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
-    <definedName name="MajorMinor_Results1000" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
-    <definedName name="MajorMinor_Results200" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
-    <definedName name="MajorMinor_Results300" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
-    <definedName name="MajorMinor_Results400" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
-    <definedName name="MajorMinor_Results500" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
-    <definedName name="MajorMinor_Results600" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
-    <definedName name="MajorMinor_Results700" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
-    <definedName name="MajorMinor_Results800" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
-    <definedName name="MajorMinor_Results900" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
+    <definedName name="MajorMinor_Results_100" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
+    <definedName name="MajorMinor_Results_1000" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
+    <definedName name="MajorMinor_Results_200" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
+    <definedName name="MajorMinor_Results_300" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
+    <definedName name="MajorMinor_Results_400" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
+    <definedName name="MajorMinor_Results_500" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
+    <definedName name="MajorMinor_Results_600" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
+    <definedName name="MajorMinor_Results_700" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
+    <definedName name="MajorMinor_Results_800" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
+    <definedName name="MajorMinor_Results_900" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,71 +32,71 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MajorMinor Results100.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results100.csv" comma="1">
+  <connection id="1" name="MajorMinor Results 100.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 100.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="MajorMinor Results1000.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results1000.csv" comma="1">
+  <connection id="2" name="MajorMinor Results 1000.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 1000.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="MajorMinor Results200.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results200.csv" comma="1">
+  <connection id="3" name="MajorMinor Results 200.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 200.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="MajorMinor Results300.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results300.csv" comma="1">
+  <connection id="4" name="MajorMinor Results 300.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 300.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="MajorMinor Results400.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results400.csv" comma="1">
+  <connection id="5" name="MajorMinor Results 400.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 400.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="MajorMinor Results500.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results500.csv" comma="1">
+  <connection id="6" name="MajorMinor Results 500.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 500.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="MajorMinor Results600.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results600.csv" comma="1">
+  <connection id="7" name="MajorMinor Results 600.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 600.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="MajorMinor Results700.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results700.csv" comma="1">
+  <connection id="8" name="MajorMinor Results 700.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 700.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="MajorMinor Results800.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results800.csv" comma="1">
+  <connection id="9" name="MajorMinor Results 800.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 800.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="MajorMinor Results900.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results900.csv" comma="1">
+  <connection id="10" name="MajorMinor Results 900.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:MajorMinor Results:MajorMinor Results 900.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -108,10 +108,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Major Taste </t>
+    <t xml:space="preserve">Taste 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Minor Taste</t>
+    <t xml:space="preserve"> Taste 0</t>
   </si>
 </sst>
 </file>
@@ -159,43 +159,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results900" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 900" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -636,4962 +636,4962 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
-        <v>1.56944444444444</v>
+        <v>2.3095238095238</v>
       </c>
       <c r="B3">
-        <v>0.72916666666666596</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="D3">
-        <v>1.61805555555555</v>
+        <v>1.78571428571428</v>
       </c>
       <c r="E3">
-        <v>0.90625</v>
+        <v>2.6111111111111098</v>
       </c>
       <c r="G3">
-        <v>1.1597222222222201</v>
+        <v>2.1666666666666599</v>
       </c>
       <c r="H3">
-        <v>1.09375</v>
+        <v>2.1666666666666599</v>
       </c>
       <c r="J3">
-        <v>0.97916666666666596</v>
+        <v>2.21428571428571</v>
       </c>
       <c r="K3">
-        <v>1.65625</v>
+        <v>2.5</v>
       </c>
       <c r="M3">
-        <v>1.0347222222222201</v>
+        <v>2.9761904761904701</v>
       </c>
       <c r="N3">
-        <v>1.4895833333333299</v>
+        <v>2.7222222222222201</v>
       </c>
       <c r="P3">
-        <v>1.07638888888888</v>
+        <v>2.5476190476190399</v>
       </c>
       <c r="Q3">
-        <v>1.4270833333333299</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="S3">
-        <v>1.375</v>
+        <v>2.5476190476190399</v>
       </c>
       <c r="T3">
-        <v>1.1041666666666601</v>
+        <v>2.2777777777777701</v>
       </c>
       <c r="V3">
-        <v>0.99305555555555503</v>
+        <v>2.6904761904761898</v>
       </c>
       <c r="W3">
-        <v>1.3854166666666601</v>
+        <v>1.94444444444444</v>
       </c>
       <c r="Y3">
-        <v>1.51388888888888</v>
+        <v>2.1666666666666599</v>
       </c>
       <c r="Z3">
-        <v>1.2291666666666601</v>
+        <v>2.7222222222222201</v>
       </c>
       <c r="AB3">
-        <v>1.0833333333333299</v>
+        <v>2.0238095238095202</v>
       </c>
       <c r="AC3">
-        <v>0.91666666666666596</v>
+        <v>2.2777777777777701</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4">
-        <v>3.8819444444444402</v>
+        <v>6.6547619047618998</v>
       </c>
       <c r="B4">
-        <v>2.6770833333333299</v>
+        <v>7.9166666666666599</v>
       </c>
       <c r="D4">
-        <v>3.7083333333333299</v>
+        <v>7.2976190476190403</v>
       </c>
       <c r="E4">
-        <v>2.3541666666666599</v>
+        <v>8.5277777777777697</v>
       </c>
       <c r="G4">
-        <v>3.2291666666666599</v>
+        <v>7.1547619047618998</v>
       </c>
       <c r="H4">
-        <v>3.3229166666666599</v>
+        <v>7.30555555555555</v>
       </c>
       <c r="J4">
-        <v>2.7222222222222201</v>
+        <v>7.2023809523809499</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>8.6388888888888893</v>
       </c>
       <c r="M4">
-        <v>3.6041666666666599</v>
+        <v>10.3214285714285</v>
       </c>
       <c r="N4">
-        <v>2.46875</v>
+        <v>6.0277777777777697</v>
       </c>
       <c r="P4">
-        <v>3.2847222222222201</v>
+        <v>9.2738095238095202</v>
       </c>
       <c r="Q4">
-        <v>3.9895833333333299</v>
+        <v>7.25</v>
       </c>
       <c r="S4">
-        <v>4.0416666666666599</v>
+        <v>8.5476190476190403</v>
       </c>
       <c r="T4">
-        <v>2.6041666666666599</v>
+        <v>5.05555555555555</v>
       </c>
       <c r="V4">
-        <v>3.38888888888888</v>
+        <v>8.6071428571428505</v>
       </c>
       <c r="W4">
-        <v>3.125</v>
+        <v>7.6944444444444402</v>
       </c>
       <c r="Y4">
-        <v>3.4027777777777701</v>
+        <v>7.4285714285714199</v>
       </c>
       <c r="Z4">
-        <v>3.3541666666666599</v>
+        <v>8.7777777777777697</v>
       </c>
       <c r="AB4">
-        <v>3.07638888888888</v>
+        <v>7.1071428571428497</v>
       </c>
       <c r="AC4">
-        <v>2.59375</v>
+        <v>7.30555555555555</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5">
-        <v>6.875</v>
+        <v>12.1785714285714</v>
       </c>
       <c r="B5">
-        <v>4.8125</v>
+        <v>18.3611111111111</v>
       </c>
       <c r="D5">
-        <v>6.6111111111111098</v>
+        <v>14.523809523809501</v>
       </c>
       <c r="E5">
-        <v>5.5</v>
+        <v>13.6666666666666</v>
       </c>
       <c r="G5">
-        <v>6.2986111111111098</v>
+        <v>13.773809523809501</v>
       </c>
       <c r="H5">
-        <v>5.9270833333333304</v>
+        <v>14.4166666666666</v>
       </c>
       <c r="J5">
-        <v>5.9722222222222197</v>
+        <v>14.3214285714285</v>
       </c>
       <c r="K5">
-        <v>7.25</v>
+        <v>15.5833333333333</v>
       </c>
       <c r="M5">
-        <v>6.3333333333333304</v>
+        <v>17.8095238095238</v>
       </c>
       <c r="N5">
-        <v>4.375</v>
+        <v>11.7777777777777</v>
       </c>
       <c r="P5">
-        <v>5.6666666666666599</v>
+        <v>16.5</v>
       </c>
       <c r="Q5">
-        <v>7.25</v>
+        <v>13.0555555555555</v>
       </c>
       <c r="S5">
-        <v>6.6944444444444402</v>
+        <v>16.214285714285701</v>
       </c>
       <c r="T5">
-        <v>4.6666666666666599</v>
+        <v>10.0555555555555</v>
       </c>
       <c r="V5">
-        <v>6.2291666666666599</v>
+        <v>16.440476190476101</v>
       </c>
       <c r="W5">
-        <v>5.1145833333333304</v>
+        <v>12.0833333333333</v>
       </c>
       <c r="Y5">
-        <v>5.8333333333333304</v>
+        <v>14.8809523809523</v>
       </c>
       <c r="Z5">
-        <v>6.4166666666666599</v>
+        <v>15.0555555555555</v>
       </c>
       <c r="AB5">
-        <v>5.3263888888888804</v>
+        <v>13.3214285714285</v>
       </c>
       <c r="AC5">
-        <v>5.8854166666666599</v>
+        <v>14.5833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6">
-        <v>10.0208333333333</v>
+        <v>19.523809523809501</v>
       </c>
       <c r="B6">
-        <v>7.7604166666666599</v>
+        <v>24.8888888888888</v>
       </c>
       <c r="D6">
-        <v>9.7083333333333304</v>
+        <v>21.738095238095202</v>
       </c>
       <c r="E6">
-        <v>9.0625</v>
+        <v>20.8333333333333</v>
       </c>
       <c r="G6">
-        <v>9.30555555555555</v>
+        <v>21.25</v>
       </c>
       <c r="H6">
-        <v>8.7083333333333304</v>
+        <v>20.9722222222222</v>
       </c>
       <c r="J6">
-        <v>9.18055555555555</v>
+        <v>21.321428571428498</v>
       </c>
       <c r="K6">
-        <v>10.3125</v>
+        <v>23.8055555555555</v>
       </c>
       <c r="M6">
-        <v>9.9583333333333304</v>
+        <v>24.773809523809501</v>
       </c>
       <c r="N6">
-        <v>6.8125</v>
+        <v>19.6388888888888</v>
       </c>
       <c r="P6">
-        <v>8.6736111111111107</v>
+        <v>24.797619047619001</v>
       </c>
       <c r="Q6">
-        <v>10.4895833333333</v>
+        <v>18.25</v>
       </c>
       <c r="S6">
-        <v>9.7986111111111107</v>
+        <v>23.178571428571399</v>
       </c>
       <c r="T6">
-        <v>6.9270833333333304</v>
+        <v>17.6944444444444</v>
       </c>
       <c r="V6">
-        <v>9.7152777777777697</v>
+        <v>23.75</v>
       </c>
       <c r="W6">
-        <v>8.09375</v>
+        <v>18.8055555555555</v>
       </c>
       <c r="Y6">
-        <v>9.1458333333333304</v>
+        <v>22.9166666666666</v>
       </c>
       <c r="Z6">
-        <v>9.28125</v>
+        <v>21.0833333333333</v>
       </c>
       <c r="AB6">
-        <v>8.8333333333333304</v>
+        <v>20.547619047619001</v>
       </c>
       <c r="AC6">
-        <v>8.875</v>
+        <v>22.1666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
-        <v>13.7916666666666</v>
+        <v>26.523809523809501</v>
       </c>
       <c r="B7">
-        <v>10.2708333333333</v>
+        <v>33.2222222222222</v>
       </c>
       <c r="D7">
-        <v>13.1597222222222</v>
+        <v>30.440476190476101</v>
       </c>
       <c r="E7">
-        <v>11.6770833333333</v>
+        <v>25.1944444444444</v>
       </c>
       <c r="G7">
-        <v>12.8472222222222</v>
+        <v>28.607142857142801</v>
       </c>
       <c r="H7">
-        <v>11.8541666666666</v>
+        <v>28.4722222222222</v>
       </c>
       <c r="J7">
-        <v>12.4375</v>
+        <v>28.3928571428571</v>
       </c>
       <c r="K7">
-        <v>13.96875</v>
+        <v>31.3055555555555</v>
       </c>
       <c r="M7">
-        <v>13.1527777777777</v>
+        <v>31.9166666666666</v>
       </c>
       <c r="N7">
-        <v>10.2291666666666</v>
+        <v>27.3055555555555</v>
       </c>
       <c r="P7">
-        <v>11.4166666666666</v>
+        <v>32.654761904761898</v>
       </c>
       <c r="Q7">
-        <v>14.5416666666666</v>
+        <v>24.9166666666666</v>
       </c>
       <c r="S7">
-        <v>13.4097222222222</v>
+        <v>30.857142857142801</v>
       </c>
       <c r="T7">
-        <v>9.59375</v>
+        <v>24.7777777777777</v>
       </c>
       <c r="V7">
-        <v>13.0347222222222</v>
+        <v>30</v>
       </c>
       <c r="W7">
-        <v>11.90625</v>
+        <v>29</v>
       </c>
       <c r="Y7">
-        <v>12.3958333333333</v>
+        <v>30.8095238095238</v>
       </c>
       <c r="Z7">
-        <v>12.6979166666666</v>
+        <v>26.4444444444444</v>
       </c>
       <c r="AB7">
-        <v>12.3680555555555</v>
+        <v>28.2261904761904</v>
       </c>
       <c r="AC7">
-        <v>11.4895833333333</v>
+        <v>28.9166666666666</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
-        <v>18.1666666666666</v>
+        <v>34.380952380952301</v>
       </c>
       <c r="B8">
-        <v>12.875</v>
+        <v>39.8888888888888</v>
       </c>
       <c r="D8">
-        <v>16.4791666666666</v>
+        <v>38.511904761904702</v>
       </c>
       <c r="E8">
-        <v>15.15625</v>
+        <v>31.0277777777777</v>
       </c>
       <c r="G8">
-        <v>15.9652777777777</v>
+        <v>35.607142857142797</v>
       </c>
       <c r="H8">
-        <v>15.5104166666666</v>
+        <v>36.8055555555555</v>
       </c>
       <c r="J8">
-        <v>16.1041666666666</v>
+        <v>35.214285714285701</v>
       </c>
       <c r="K8">
-        <v>17.09375</v>
+        <v>40.0555555555555</v>
       </c>
       <c r="M8">
-        <v>16.7916666666666</v>
+        <v>39.059523809523803</v>
       </c>
       <c r="N8">
-        <v>13.8125</v>
+        <v>35.6388888888888</v>
       </c>
       <c r="P8">
-        <v>14.7291666666666</v>
+        <v>40.511904761904702</v>
       </c>
       <c r="Q8">
-        <v>18.3229166666666</v>
+        <v>31.5833333333333</v>
       </c>
       <c r="S8">
-        <v>17.1111111111111</v>
+        <v>38.892857142857103</v>
       </c>
       <c r="T8">
-        <v>12.4166666666666</v>
+        <v>30.8055555555555</v>
       </c>
       <c r="V8">
-        <v>16.125</v>
+        <v>36.785714285714199</v>
       </c>
       <c r="W8">
-        <v>16.0208333333333</v>
+        <v>38.1666666666666</v>
       </c>
       <c r="Y8">
-        <v>15.7986111111111</v>
+        <v>38.6666666666666</v>
       </c>
       <c r="Z8">
-        <v>15.9270833333333</v>
+        <v>32.7777777777777</v>
       </c>
       <c r="AB8">
-        <v>15.7013888888888</v>
+        <v>35.904761904761898</v>
       </c>
       <c r="AC8">
-        <v>15.03125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9">
-        <v>21.25</v>
+        <v>42.059523809523803</v>
       </c>
       <c r="B9">
-        <v>16.9583333333333</v>
+        <v>46.9722222222222</v>
       </c>
       <c r="D9">
-        <v>19.9375</v>
+        <v>45.297619047619001</v>
       </c>
       <c r="E9">
-        <v>19.1354166666666</v>
+        <v>40.0833333333333</v>
       </c>
       <c r="G9">
-        <v>19.3888888888888</v>
+        <v>42.75</v>
       </c>
       <c r="H9">
-        <v>19.25</v>
+        <v>44.5833333333333</v>
       </c>
       <c r="J9">
-        <v>19.9652777777777</v>
+        <v>42.178571428571402</v>
       </c>
       <c r="K9">
-        <v>19.96875</v>
+        <v>48.8055555555555</v>
       </c>
       <c r="M9">
-        <v>21.0972222222222</v>
+        <v>46.559523809523803</v>
       </c>
       <c r="N9">
-        <v>16.1875</v>
+        <v>43.1388888888888</v>
       </c>
       <c r="P9">
-        <v>19.1458333333333</v>
+        <v>48.726190476190403</v>
       </c>
       <c r="Q9">
-        <v>20.65625</v>
+        <v>37.4166666666666</v>
       </c>
       <c r="S9">
-        <v>21.5833333333333</v>
+        <v>46.571428571428498</v>
       </c>
       <c r="T9">
-        <v>14.8333333333333</v>
+        <v>37.2222222222222</v>
       </c>
       <c r="V9">
-        <v>20.3888888888888</v>
+        <v>44.464285714285701</v>
       </c>
       <c r="W9">
-        <v>18.8333333333333</v>
+        <v>45.25</v>
       </c>
       <c r="Y9">
-        <v>19.9652777777777</v>
+        <v>46.345238095238003</v>
       </c>
       <c r="Z9">
-        <v>18.9270833333333</v>
+        <v>39.8611111111111</v>
       </c>
       <c r="AB9">
-        <v>19.4583333333333</v>
+        <v>44.119047619047599</v>
       </c>
       <c r="AC9">
-        <v>18.0208333333333</v>
+        <v>41.8333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10">
-        <v>24.2152777777777</v>
+        <v>50.273809523809497</v>
       </c>
       <c r="B10">
-        <v>21.71875</v>
+        <v>52.8055555555555</v>
       </c>
       <c r="D10">
-        <v>24.2569444444444</v>
+        <v>51.726190476190403</v>
       </c>
       <c r="E10">
-        <v>21.90625</v>
+        <v>50.0833333333333</v>
       </c>
       <c r="G10">
-        <v>23.0763888888888</v>
+        <v>51.678571428571402</v>
       </c>
       <c r="H10">
-        <v>22.8020833333333</v>
+        <v>48.75</v>
       </c>
       <c r="J10">
-        <v>22.7708333333333</v>
+        <v>49.5</v>
       </c>
       <c r="K10">
-        <v>24.8854166666666</v>
+        <v>56.7222222222222</v>
       </c>
       <c r="M10">
-        <v>24.5347222222222</v>
+        <v>53.880952380952301</v>
       </c>
       <c r="N10">
-        <v>20.3229166666666</v>
+        <v>51.0555555555555</v>
       </c>
       <c r="P10">
-        <v>23.0208333333333</v>
+        <v>56.226190476190403</v>
       </c>
       <c r="Q10">
-        <v>23.84375</v>
+        <v>44.9166666666666</v>
       </c>
       <c r="S10">
-        <v>25.3541666666666</v>
+        <v>53.714285714285701</v>
       </c>
       <c r="T10">
-        <v>18.0104166666666</v>
+        <v>45.3333333333333</v>
       </c>
       <c r="V10">
-        <v>23.9513888888888</v>
+        <v>51.964285714285701</v>
       </c>
       <c r="W10">
-        <v>22.65625</v>
+        <v>52.75</v>
       </c>
       <c r="Y10">
-        <v>23.3472222222222</v>
+        <v>53.845238095238003</v>
       </c>
       <c r="Z10">
-        <v>23.1041666666666</v>
+        <v>47.3611111111111</v>
       </c>
       <c r="AB10">
-        <v>23.2291666666666</v>
+        <v>51.976190476190403</v>
       </c>
       <c r="AC10">
-        <v>21.2395833333333</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11">
-        <v>27.5486111111111</v>
+        <v>58.130952380952301</v>
       </c>
       <c r="B11">
-        <v>25.9270833333333</v>
+        <v>59.4722222222222</v>
       </c>
       <c r="D11">
-        <v>27.7361111111111</v>
+        <v>59.047619047619001</v>
       </c>
       <c r="E11">
-        <v>25.8125</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>26.9722222222222</v>
+        <v>58.107142857142797</v>
       </c>
       <c r="H11">
-        <v>26.0833333333333</v>
+        <v>58.3055555555555</v>
       </c>
       <c r="J11">
-        <v>26.9375</v>
+        <v>57.357142857142797</v>
       </c>
       <c r="K11">
-        <v>28.0104166666666</v>
+        <v>63.3888888888888</v>
       </c>
       <c r="M11">
-        <v>28.0694444444444</v>
+        <v>60.488095238095198</v>
       </c>
       <c r="N11">
-        <v>24.2291666666666</v>
+        <v>60.6388888888888</v>
       </c>
       <c r="P11">
-        <v>26.5625</v>
+        <v>63.190476190476097</v>
       </c>
       <c r="Q11">
-        <v>27.90625</v>
+        <v>53.6666666666666</v>
       </c>
       <c r="S11">
-        <v>28.8333333333333</v>
+        <v>60.5</v>
       </c>
       <c r="T11">
-        <v>21.9166666666666</v>
+        <v>54.5</v>
       </c>
       <c r="V11">
-        <v>27.5625</v>
+        <v>58.928571428571402</v>
       </c>
       <c r="W11">
-        <v>26.40625</v>
+        <v>61.2777777777777</v>
       </c>
       <c r="Y11">
-        <v>26.8888888888888</v>
+        <v>62.4166666666666</v>
       </c>
       <c r="Z11">
-        <v>27.1666666666666</v>
+        <v>52.3611111111111</v>
       </c>
       <c r="AB11">
-        <v>26.8472222222222</v>
+        <v>59.8333333333333</v>
       </c>
       <c r="AC11">
-        <v>25.0208333333333</v>
+        <v>55.1666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12">
-        <v>31.4027777777777</v>
+        <v>65.273809523809504</v>
       </c>
       <c r="B12">
-        <v>29.5208333333333</v>
+        <v>67.8055555555555</v>
       </c>
       <c r="D12">
-        <v>31.9513888888888</v>
+        <v>67.261904761904702</v>
       </c>
       <c r="E12">
-        <v>28.78125</v>
+        <v>63.8333333333333</v>
       </c>
       <c r="G12">
-        <v>30.6666666666666</v>
+        <v>66.321428571428498</v>
       </c>
       <c r="H12">
-        <v>29.8333333333333</v>
+        <v>63.9166666666666</v>
       </c>
       <c r="J12">
-        <v>30.7361111111111</v>
+        <v>64.5</v>
       </c>
       <c r="K12">
-        <v>31.4791666666666</v>
+        <v>71.7222222222222</v>
       </c>
       <c r="M12">
-        <v>31.4027777777777</v>
+        <v>68.523809523809504</v>
       </c>
       <c r="N12">
-        <v>28.6041666666666</v>
+        <v>66.8888888888888</v>
       </c>
       <c r="P12">
-        <v>29.8958333333333</v>
+        <v>71.047619047618994</v>
       </c>
       <c r="Q12">
-        <v>32.15625</v>
+        <v>60.3333333333333</v>
       </c>
       <c r="S12">
-        <v>32.0625</v>
+        <v>68</v>
       </c>
       <c r="T12">
-        <v>26.1979166666666</v>
+        <v>62</v>
       </c>
       <c r="V12">
-        <v>31.0486111111111</v>
+        <v>66.071428571428498</v>
       </c>
       <c r="W12">
-        <v>30.46875</v>
+        <v>69.3888888888888</v>
       </c>
       <c r="Y12">
-        <v>30.7430555555555</v>
+        <v>69.738095238095198</v>
       </c>
       <c r="Z12">
-        <v>30.59375</v>
+        <v>60.2777777777777</v>
       </c>
       <c r="AB12">
-        <v>30.8055555555555</v>
+        <v>66.976190476190396</v>
       </c>
       <c r="AC12">
-        <v>28.4583333333333</v>
+        <v>63.0555555555555</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13">
-        <v>35.2013888888888</v>
+        <v>73.6666666666666</v>
       </c>
       <c r="B13">
-        <v>33.1145833333333</v>
+        <v>73.2222222222222</v>
       </c>
       <c r="D13">
-        <v>35.8055555555555</v>
+        <v>75.119047619047606</v>
       </c>
       <c r="E13">
-        <v>32.375</v>
+        <v>70.5</v>
       </c>
       <c r="G13">
-        <v>34.2083333333333</v>
+        <v>74.178571428571402</v>
       </c>
       <c r="H13">
-        <v>33.8958333333333</v>
+        <v>70.5833333333333</v>
       </c>
       <c r="J13">
-        <v>34.2777777777777</v>
+        <v>72.714285714285694</v>
       </c>
       <c r="K13">
-        <v>35.4166666666666</v>
+        <v>77.5555555555555</v>
       </c>
       <c r="M13">
-        <v>34.8125</v>
+        <v>75.785714285714207</v>
       </c>
       <c r="N13">
-        <v>32.8229166666666</v>
+        <v>73.8333333333333</v>
       </c>
       <c r="P13">
-        <v>34.1666666666666</v>
+        <v>78.190476190476105</v>
       </c>
       <c r="Q13">
-        <v>35.125</v>
+        <v>68.5555555555555</v>
       </c>
       <c r="S13">
-        <v>35.7291666666666</v>
+        <v>76.75</v>
       </c>
       <c r="T13">
-        <v>29.9479166666666</v>
+        <v>66.5833333333333</v>
       </c>
       <c r="V13">
-        <v>34.6944444444444</v>
+        <v>73.035714285714207</v>
       </c>
       <c r="W13">
-        <v>34.0833333333333</v>
+        <v>77.0277777777777</v>
       </c>
       <c r="Y13">
-        <v>34.0208333333333</v>
+        <v>76.523809523809504</v>
       </c>
       <c r="Z13">
-        <v>34.96875</v>
+        <v>69.4444444444444</v>
       </c>
       <c r="AB13">
-        <v>34.6805555555555</v>
+        <v>74.8333333333333</v>
       </c>
       <c r="AC13">
-        <v>31.8958333333333</v>
+        <v>69.6111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14">
-        <v>39.7847222222222</v>
+        <v>81.880952380952294</v>
       </c>
       <c r="B14">
-        <v>35.4479166666666</v>
+        <v>79.0555555555555</v>
       </c>
       <c r="D14">
-        <v>39.6597222222222</v>
+        <v>81.547619047618994</v>
       </c>
       <c r="E14">
-        <v>35.96875</v>
+        <v>79.2777777777777</v>
       </c>
       <c r="G14">
-        <v>37.8541666666666</v>
+        <v>80.964285714285694</v>
       </c>
       <c r="H14">
-        <v>37.8020833333333</v>
+        <v>79.75</v>
       </c>
       <c r="J14">
-        <v>38.4444444444444</v>
+        <v>79.857142857142804</v>
       </c>
       <c r="K14">
-        <v>38.4583333333333</v>
+        <v>85.2222222222222</v>
       </c>
       <c r="M14">
-        <v>38.1458333333333</v>
+        <v>83.142857142857096</v>
       </c>
       <c r="N14">
-        <v>37.1979166666666</v>
+        <v>79.6666666666666</v>
       </c>
       <c r="P14">
-        <v>38.125</v>
+        <v>84.654761904761898</v>
       </c>
       <c r="Q14">
-        <v>38.5625</v>
+        <v>77.3611111111111</v>
       </c>
       <c r="S14">
-        <v>40.0486111111111</v>
+        <v>84.071428571428498</v>
       </c>
       <c r="T14">
-        <v>32.7604166666666</v>
+        <v>74.5</v>
       </c>
       <c r="V14">
-        <v>38.7569444444444</v>
+        <v>80.535714285714207</v>
       </c>
       <c r="W14">
-        <v>37.0729166666666</v>
+        <v>83.3055555555555</v>
       </c>
       <c r="Y14">
-        <v>37.4583333333333</v>
+        <v>83.6666666666666</v>
       </c>
       <c r="Z14">
-        <v>39.1875</v>
+        <v>77.5555555555555</v>
       </c>
       <c r="AB14">
-        <v>38.8472222222222</v>
+        <v>82.511904761904702</v>
       </c>
       <c r="AC14">
-        <v>35.0208333333333</v>
+        <v>76.6944444444444</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15">
-        <v>43.4305555555555</v>
+        <v>89.023809523809504</v>
       </c>
       <c r="B15">
-        <v>39.3541666666666</v>
+        <v>86.8333333333333</v>
       </c>
       <c r="D15">
-        <v>43.3055555555555</v>
+        <v>89.226190476190396</v>
       </c>
       <c r="E15">
-        <v>39.875</v>
+        <v>85.4722222222222</v>
       </c>
       <c r="G15">
-        <v>41.1875</v>
+        <v>88.107142857142804</v>
       </c>
       <c r="H15">
-        <v>42.1770833333333</v>
+        <v>88.0833333333333</v>
       </c>
       <c r="J15">
-        <v>43.0277777777777</v>
+        <v>87.178571428571402</v>
       </c>
       <c r="K15">
-        <v>40.9583333333333</v>
+        <v>91.4722222222222</v>
       </c>
       <c r="M15">
-        <v>41.6875</v>
+        <v>91.357142857142804</v>
       </c>
       <c r="N15">
-        <v>41.2604166666666</v>
+        <v>85.1666666666666</v>
       </c>
       <c r="P15">
-        <v>42.3958333333333</v>
+        <v>91.440476190476105</v>
       </c>
       <c r="Q15">
-        <v>41.53125</v>
+        <v>85.9722222222222</v>
       </c>
       <c r="S15">
-        <v>44.0069444444444</v>
+        <v>91.214285714285694</v>
       </c>
       <c r="T15">
-        <v>36.1979166666666</v>
+        <v>82.8333333333333</v>
       </c>
       <c r="V15">
-        <v>42.6111111111111</v>
+        <v>87.857142857142804</v>
       </c>
       <c r="W15">
-        <v>40.6666666666666</v>
+        <v>91.2222222222222</v>
       </c>
       <c r="Y15">
-        <v>40.6875</v>
+        <v>92.4166666666666</v>
       </c>
       <c r="Z15">
-        <v>43.71875</v>
+        <v>81.9166666666666</v>
       </c>
       <c r="AB15">
-        <v>42.5972222222222</v>
+        <v>88.976190476190396</v>
       </c>
       <c r="AC15">
-        <v>38.6458333333333</v>
+        <v>84.3888888888888</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16">
-        <v>48.2222222222222</v>
+        <v>97.059523809523796</v>
       </c>
       <c r="B16">
-        <v>41.5416666666666</v>
+        <v>93.0833333333333</v>
       </c>
       <c r="D16">
-        <v>47.2638888888888</v>
+        <v>97.785714285714207</v>
       </c>
       <c r="E16">
-        <v>43.3125</v>
+        <v>89.6111111111111</v>
       </c>
       <c r="G16">
-        <v>44.8333333333333</v>
+        <v>95.607142857142804</v>
       </c>
       <c r="H16">
-        <v>46.0833333333333</v>
+        <v>95.5833333333333</v>
       </c>
       <c r="J16">
-        <v>46.5694444444444</v>
+        <v>94.25</v>
       </c>
       <c r="K16">
-        <v>45.0208333333333</v>
+        <v>97.5277777777777</v>
       </c>
       <c r="M16">
-        <v>45.5416666666666</v>
+        <v>97.976190476190396</v>
       </c>
       <c r="N16">
-        <v>44.8541666666666</v>
+        <v>91.6111111111111</v>
       </c>
       <c r="P16">
-        <v>46.4583333333333</v>
+        <v>98.976190476190396</v>
       </c>
       <c r="Q16">
-        <v>44.8125</v>
+        <v>92.6111111111111</v>
       </c>
       <c r="S16">
-        <v>47.2291666666666</v>
+        <v>98.488095238095198</v>
       </c>
       <c r="T16">
-        <v>40.5729166666666</v>
+        <v>90.75</v>
       </c>
       <c r="V16">
-        <v>46.6736111111111</v>
+        <v>96.428571428571402</v>
       </c>
       <c r="W16">
-        <v>43.9479166666666</v>
+        <v>95</v>
       </c>
       <c r="Y16">
-        <v>44.2291666666666</v>
+        <v>99.202380952380906</v>
       </c>
       <c r="Z16">
-        <v>47.78125</v>
+        <v>90.5277777777777</v>
       </c>
       <c r="AB16">
-        <v>46.4513888888888</v>
+        <v>95.464285714285694</v>
       </c>
       <c r="AC16">
-        <v>42.2395833333333</v>
+        <v>92.8055555555555</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17">
-        <v>52.2847222222222</v>
+        <v>104.916666666666</v>
       </c>
       <c r="B17">
-        <v>44.8229166666666</v>
+        <v>98.9722222222222</v>
       </c>
       <c r="D17">
-        <v>51.1180555555555</v>
+        <v>105.27380952380901</v>
       </c>
       <c r="E17">
-        <v>46.90625</v>
+        <v>96.4722222222222</v>
       </c>
       <c r="G17">
-        <v>48.7916666666666</v>
+        <v>102.75</v>
       </c>
       <c r="H17">
-        <v>49.5208333333333</v>
+        <v>103.472222222222</v>
       </c>
       <c r="J17">
-        <v>49.5902777777777</v>
+        <v>101.26190476190401</v>
       </c>
       <c r="K17">
-        <v>49.8645833333333</v>
+        <v>104.166666666666</v>
       </c>
       <c r="M17">
-        <v>50.0208333333333</v>
+        <v>104.25</v>
       </c>
       <c r="N17">
-        <v>47.5104166666666</v>
+        <v>100.194444444444</v>
       </c>
       <c r="P17">
-        <v>49.5763888888888</v>
+        <v>106.45238095238</v>
       </c>
       <c r="Q17">
-        <v>49.34375</v>
+        <v>98.6111111111111</v>
       </c>
       <c r="S17">
-        <v>51.0833333333333</v>
+        <v>105.845238095238</v>
       </c>
       <c r="T17">
-        <v>44.1666666666666</v>
+        <v>97.8055555555555</v>
       </c>
       <c r="V17">
-        <v>49.7986111111111</v>
+        <v>103.03571428571399</v>
       </c>
       <c r="W17">
-        <v>48.6354166666666</v>
+        <v>103.694444444444</v>
       </c>
       <c r="Y17">
-        <v>47.875</v>
+        <v>106.345238095238</v>
       </c>
       <c r="Z17">
-        <v>51.6875</v>
+        <v>98.4166666666666</v>
       </c>
       <c r="AB17">
-        <v>50.2013888888888</v>
+        <v>103.345238095238</v>
       </c>
       <c r="AC17">
-        <v>45.9895833333333</v>
+        <v>98.5277777777777</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18">
-        <v>56.0347222222222</v>
+        <v>112.059523809523</v>
       </c>
       <c r="B18">
-        <v>48.5729166666666</v>
+        <v>106.527777777777</v>
       </c>
       <c r="D18">
-        <v>55.0763888888888</v>
+        <v>113.130952380952</v>
       </c>
       <c r="E18">
-        <v>50.34375</v>
+        <v>102.694444444444</v>
       </c>
       <c r="G18">
-        <v>52.4375</v>
+        <v>110.428571428571</v>
       </c>
       <c r="H18">
-        <v>53.4270833333333</v>
+        <v>108.111111111111</v>
       </c>
       <c r="J18">
-        <v>53.3402777777777</v>
+        <v>108.678571428571</v>
       </c>
       <c r="K18">
-        <v>53.6145833333333</v>
+        <v>110.194444444444</v>
       </c>
       <c r="M18">
-        <v>54.6041666666666</v>
+        <v>111.75</v>
       </c>
       <c r="N18">
-        <v>50.0104166666666</v>
+        <v>106.916666666666</v>
       </c>
       <c r="P18">
-        <v>53.5347222222222</v>
+        <v>113.404761904761</v>
       </c>
       <c r="Q18">
-        <v>52.78125</v>
+        <v>106.388888888888</v>
       </c>
       <c r="S18">
-        <v>54.4166666666666</v>
+        <v>111.595238095238</v>
       </c>
       <c r="T18">
-        <v>48.5416666666666</v>
+        <v>106.5</v>
       </c>
       <c r="V18">
-        <v>53.5486111111111</v>
+        <v>110.964285714285</v>
       </c>
       <c r="W18">
-        <v>52.3854166666666</v>
+        <v>108.638888888888</v>
       </c>
       <c r="Y18">
-        <v>51.7291666666666</v>
+        <v>114.02380952380901</v>
       </c>
       <c r="Z18">
-        <v>55.28125</v>
+        <v>105.055555555555</v>
       </c>
       <c r="AB18">
-        <v>53.7430555555555</v>
+        <v>110.738095238095</v>
       </c>
       <c r="AC18">
-        <v>49.96875</v>
+        <v>104.833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19">
-        <v>59.8888888888888</v>
+        <v>119.916666666666</v>
       </c>
       <c r="B19">
-        <v>52.1666666666666</v>
+        <v>112.861111111111</v>
       </c>
       <c r="D19">
-        <v>58.4097222222222</v>
+        <v>120.166666666666</v>
       </c>
       <c r="E19">
-        <v>54.71875</v>
+        <v>108.833333333333</v>
       </c>
       <c r="G19">
-        <v>56.1875</v>
+        <v>117.27380952380901</v>
       </c>
       <c r="H19">
-        <v>57.1770833333333</v>
+        <v>115.361111111111</v>
       </c>
       <c r="J19">
-        <v>57.7152777777777</v>
+        <v>116.595238095238</v>
       </c>
       <c r="K19">
-        <v>56.4270833333333</v>
+        <v>115.055555555555</v>
       </c>
       <c r="M19">
-        <v>58.25</v>
+        <v>118.25</v>
       </c>
       <c r="N19">
-        <v>53.9166666666666</v>
+        <v>115.194444444444</v>
       </c>
       <c r="P19">
-        <v>56.5555555555555</v>
+        <v>120.488095238095</v>
       </c>
       <c r="Q19">
-        <v>57.625</v>
+        <v>113.638888888888</v>
       </c>
       <c r="S19">
-        <v>58.7916666666666</v>
+        <v>118.464285714285</v>
       </c>
       <c r="T19">
-        <v>51.3541666666666</v>
+        <v>114.805555555555</v>
       </c>
       <c r="V19">
-        <v>57.1944444444444</v>
+        <v>117.54761904761899</v>
       </c>
       <c r="W19">
-        <v>56.2916666666666</v>
+        <v>117.055555555555</v>
       </c>
       <c r="Y19">
-        <v>55.2708333333333</v>
+        <v>120.60714285714199</v>
       </c>
       <c r="Z19">
-        <v>59.34375</v>
+        <v>112.694444444444</v>
       </c>
       <c r="AB19">
-        <v>57.5972222222222</v>
+        <v>117.880952380952</v>
       </c>
       <c r="AC19">
-        <v>53.5625</v>
+        <v>112.055555555555</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20">
-        <v>63.7430555555555</v>
+        <v>126.70238095238</v>
       </c>
       <c r="B20">
-        <v>55.7604166666666</v>
+        <v>120.361111111111</v>
       </c>
       <c r="D20">
-        <v>61.9513888888888</v>
+        <v>127.53571428571399</v>
       </c>
       <c r="E20">
-        <v>58.78125</v>
+        <v>114.527777777777</v>
       </c>
       <c r="G20">
-        <v>59.7291666666666</v>
+        <v>123.75</v>
       </c>
       <c r="H20">
-        <v>61.2395833333333</v>
+        <v>122.694444444444</v>
       </c>
       <c r="J20">
-        <v>61.6736111111111</v>
+        <v>124.95238095238</v>
       </c>
       <c r="K20">
-        <v>59.8645833333333</v>
+        <v>118.888888888888</v>
       </c>
       <c r="M20">
-        <v>62.3125</v>
+        <v>126.095238095238</v>
       </c>
       <c r="N20">
-        <v>57.1979166666666</v>
+        <v>121.333333333333</v>
       </c>
       <c r="P20">
-        <v>60.6180555555555</v>
+        <v>128.85714285714201</v>
       </c>
       <c r="Q20">
-        <v>60.90625</v>
+        <v>117.666666666666</v>
       </c>
       <c r="S20">
-        <v>62.4375</v>
+        <v>124.70238095238</v>
       </c>
       <c r="T20">
-        <v>55.2604166666666</v>
+        <v>123.472222222222</v>
       </c>
       <c r="V20">
-        <v>60.0833333333333</v>
+        <v>124.821428571428</v>
       </c>
       <c r="W20">
-        <v>61.2916666666666</v>
+        <v>123.194444444444</v>
       </c>
       <c r="Y20">
-        <v>59.2291666666666</v>
+        <v>128.583333333333</v>
       </c>
       <c r="Z20">
-        <v>62.78125</v>
+        <v>117.305555555555</v>
       </c>
       <c r="AB20">
-        <v>61.9722222222222</v>
+        <v>125.20238095238</v>
       </c>
       <c r="AC20">
-        <v>56.375</v>
+        <v>119.194444444444</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21">
-        <v>68.0138888888888</v>
+        <v>134.23809523809501</v>
       </c>
       <c r="B21">
-        <v>58.7291666666666</v>
+        <v>127</v>
       </c>
       <c r="D21">
-        <v>65.4930555555555</v>
+        <v>135.666666666666</v>
       </c>
       <c r="E21">
-        <v>62.84375</v>
+        <v>118.555555555555</v>
       </c>
       <c r="G21">
-        <v>64</v>
+        <v>130.23809523809501</v>
       </c>
       <c r="H21">
-        <v>64.2083333333333</v>
+        <v>130.111111111111</v>
       </c>
       <c r="J21">
-        <v>65.1111111111111</v>
+        <v>131.03571428571399</v>
       </c>
       <c r="K21">
-        <v>64.0833333333333</v>
+        <v>127.916666666666</v>
       </c>
       <c r="M21">
-        <v>66.375</v>
+        <v>134.03571428571399</v>
       </c>
       <c r="N21">
-        <v>60.4791666666666</v>
+        <v>126.25</v>
       </c>
       <c r="P21">
-        <v>64.1597222222222</v>
+        <v>135.95238095238</v>
       </c>
       <c r="Q21">
-        <v>64.96875</v>
+        <v>124.111111111111</v>
       </c>
       <c r="S21">
-        <v>66.2916666666666</v>
+        <v>131.82142857142799</v>
       </c>
       <c r="T21">
-        <v>58.8541666666666</v>
+        <v>129.972222222222</v>
       </c>
       <c r="V21">
-        <v>63.625</v>
+        <v>131.44047619047601</v>
       </c>
       <c r="W21">
-        <v>65.3541666666666</v>
+        <v>130.194444444444</v>
       </c>
       <c r="Y21">
-        <v>62.6666666666666</v>
+        <v>134.583333333333</v>
       </c>
       <c r="Z21">
-        <v>67</v>
+        <v>126.305555555555</v>
       </c>
       <c r="AB21">
-        <v>64.5763888888888</v>
+        <v>131.70238095238</v>
       </c>
       <c r="AC21">
-        <v>61.84375</v>
+        <v>127.916666666666</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22">
-        <v>72.0763888888888</v>
+        <v>141</v>
       </c>
       <c r="B22">
-        <v>62.0104166666666</v>
+        <v>134.111111111111</v>
       </c>
       <c r="D22">
-        <v>69.2430555555555</v>
+        <v>143.04761904761901</v>
       </c>
       <c r="E22">
-        <v>66.59375</v>
+        <v>124.444444444444</v>
       </c>
       <c r="G22">
-        <v>67.75</v>
+        <v>137.35714285714201</v>
       </c>
       <c r="H22">
-        <v>67.9583333333333</v>
+        <v>136.833333333333</v>
       </c>
       <c r="J22">
-        <v>68.9652777777777</v>
+        <v>138.34523809523799</v>
       </c>
       <c r="K22">
-        <v>67.6770833333333</v>
+        <v>135.305555555555</v>
       </c>
       <c r="M22">
-        <v>70.4375</v>
+        <v>140.916666666666</v>
       </c>
       <c r="N22">
-        <v>63.7604166666666</v>
+        <v>131.083333333333</v>
       </c>
       <c r="P22">
-        <v>67.7013888888888</v>
+        <v>142.619047619047</v>
       </c>
       <c r="Q22">
-        <v>69.03125</v>
+        <v>131.555555555555</v>
       </c>
       <c r="S22">
-        <v>70.7708333333333</v>
+        <v>138.869047619047</v>
       </c>
       <c r="T22">
-        <v>61.5104166666666</v>
+        <v>137.638888888888</v>
       </c>
       <c r="V22">
-        <v>67.5833333333333</v>
+        <v>138.666666666666</v>
       </c>
       <c r="W22">
-        <v>68.7916666666666</v>
+        <v>137.333333333333</v>
       </c>
       <c r="Y22">
-        <v>67.0416666666666</v>
+        <v>141.38095238095201</v>
       </c>
       <c r="Z22">
-        <v>69.8125</v>
+        <v>130.888888888888</v>
       </c>
       <c r="AB22">
-        <v>69.0555555555555</v>
+        <v>137.869047619047</v>
       </c>
       <c r="AC22">
-        <v>64.5</v>
+        <v>137.083333333333</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23">
-        <v>75.7222222222222</v>
+        <v>148.71428571428501</v>
       </c>
       <c r="B23">
-        <v>65.9166666666666</v>
+        <v>139.888888888888</v>
       </c>
       <c r="D23">
-        <v>72.6805555555555</v>
+        <v>149.059523809523</v>
       </c>
       <c r="E23">
-        <v>70.8125</v>
+        <v>131.972222222222</v>
       </c>
       <c r="G23">
-        <v>71.1875</v>
+        <v>144.52380952380901</v>
       </c>
       <c r="H23">
-        <v>72.1770833333333</v>
+        <v>144</v>
       </c>
       <c r="J23">
-        <v>71.6736111111111</v>
+        <v>145.60714285714201</v>
       </c>
       <c r="K23">
-        <v>72.9895833333333</v>
+        <v>141.583333333333</v>
       </c>
       <c r="M23">
-        <v>74.1875</v>
+        <v>148.142857142857</v>
       </c>
       <c r="N23">
-        <v>67.5104166666666</v>
+        <v>137.888888888888</v>
       </c>
       <c r="P23">
-        <v>71.0347222222222</v>
+        <v>149.60714285714201</v>
       </c>
       <c r="Q23">
-        <v>73.40625</v>
+        <v>138.361111111111</v>
       </c>
       <c r="S23">
-        <v>74.625</v>
+        <v>145.46428571428501</v>
       </c>
       <c r="T23">
-        <v>65.1041666666666</v>
+        <v>144.027777777777</v>
       </c>
       <c r="V23">
-        <v>71.3333333333333</v>
+        <v>146.27380952380901</v>
       </c>
       <c r="W23">
-        <v>72.5416666666666</v>
+        <v>142.472222222222</v>
       </c>
       <c r="Y23">
-        <v>71.3125</v>
+        <v>148.28571428571399</v>
       </c>
       <c r="Z23">
-        <v>72.78125</v>
+        <v>138.777777777777</v>
       </c>
       <c r="AB23">
-        <v>73.3263888888888</v>
+        <v>145.416666666666</v>
       </c>
       <c r="AC23">
-        <v>67.46875</v>
+        <v>141.583333333333</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24">
-        <v>79.1597222222222</v>
+        <v>156.20238095238</v>
       </c>
       <c r="B24">
-        <v>70.1354166666666</v>
+        <v>146.416666666666</v>
       </c>
       <c r="D24">
-        <v>76.6388888888888</v>
+        <v>155.21428571428501</v>
       </c>
       <c r="E24">
-        <v>74.25</v>
+        <v>140.277777777777</v>
       </c>
       <c r="G24">
-        <v>74.4166666666666</v>
+        <v>151.416666666666</v>
       </c>
       <c r="H24">
-        <v>76.7083333333333</v>
+        <v>151.138888888888</v>
       </c>
       <c r="J24">
-        <v>76.2569444444444</v>
+        <v>151.559523809523</v>
       </c>
       <c r="K24">
-        <v>75.4895833333333</v>
+        <v>150.027777777777</v>
       </c>
       <c r="M24">
-        <v>78.6666666666666</v>
+        <v>156.25</v>
       </c>
       <c r="N24">
-        <v>70.1666666666666</v>
+        <v>142.305555555555</v>
       </c>
       <c r="P24">
-        <v>74.5763888888888</v>
+        <v>156.19047619047601</v>
       </c>
       <c r="Q24">
-        <v>77.46875</v>
+        <v>146.111111111111</v>
       </c>
       <c r="S24">
-        <v>78.4791666666666</v>
+        <v>151.88095238095201</v>
       </c>
       <c r="T24">
-        <v>68.6979166666666</v>
+        <v>149.611111111111</v>
       </c>
       <c r="V24">
-        <v>74.875</v>
+        <v>153.96428571428501</v>
       </c>
       <c r="W24">
-        <v>76.6041666666666</v>
+        <v>146.638888888888</v>
       </c>
       <c r="Y24">
-        <v>74.4375</v>
+        <v>154.892857142857</v>
       </c>
       <c r="Z24">
-        <v>77.46875</v>
+        <v>145.472222222222</v>
       </c>
       <c r="AB24">
-        <v>76.9722222222222</v>
+        <v>152.79761904761901</v>
       </c>
       <c r="AC24">
-        <v>71.375</v>
+        <v>146.805555555555</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25">
-        <v>82.7013888888888</v>
+        <v>160.32142857142799</v>
       </c>
       <c r="B25">
-        <v>74.1979166666666</v>
+        <v>156.472222222222</v>
       </c>
       <c r="D25">
-        <v>80.2847222222222</v>
+        <v>162.916666666666</v>
       </c>
       <c r="E25">
-        <v>78.15625</v>
+        <v>146.305555555555</v>
       </c>
       <c r="G25">
-        <v>77.4375</v>
+        <v>157.369047619047</v>
       </c>
       <c r="H25">
-        <v>81.5520833333333</v>
+        <v>160.361111111111</v>
       </c>
       <c r="J25">
-        <v>80.8402777777777</v>
+        <v>158.03571428571399</v>
       </c>
       <c r="K25">
-        <v>77.9895833333333</v>
+        <v>156.027777777777</v>
       </c>
       <c r="M25">
-        <v>82.625</v>
+        <v>163.01190476190399</v>
       </c>
       <c r="N25">
-        <v>73.6041666666666</v>
+        <v>148.861111111111</v>
       </c>
       <c r="P25">
-        <v>77.5972222222222</v>
+        <v>163.333333333333</v>
       </c>
       <c r="Q25">
-        <v>82.3125</v>
+        <v>150.555555555555</v>
       </c>
       <c r="S25">
-        <v>82.125</v>
+        <v>158.90476190476099</v>
       </c>
       <c r="T25">
-        <v>72.6041666666666</v>
+        <v>156.777777777777</v>
       </c>
       <c r="V25">
-        <v>78.2083333333333</v>
+        <v>160.71428571428501</v>
       </c>
       <c r="W25">
-        <v>80.9791666666666</v>
+        <v>153.888888888888</v>
       </c>
       <c r="Y25">
-        <v>78.0833333333333</v>
+        <v>160.63095238095201</v>
       </c>
       <c r="Z25">
-        <v>81.375</v>
+        <v>155.527777777777</v>
       </c>
       <c r="AB25">
-        <v>80.3055555555555</v>
+        <v>160.32142857142799</v>
       </c>
       <c r="AC25">
-        <v>75.5833333333333</v>
+        <v>152.472222222222</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26">
-        <v>86.2430555555555</v>
+        <v>167.23809523809501</v>
       </c>
       <c r="B26">
-        <v>78.2604166666666</v>
+        <v>163</v>
       </c>
       <c r="D26">
-        <v>84.1388888888888</v>
+        <v>169.67857142857099</v>
       </c>
       <c r="E26">
-        <v>81.75</v>
+        <v>152.972222222222</v>
       </c>
       <c r="G26">
-        <v>80.9791666666666</v>
+        <v>163.642857142857</v>
       </c>
       <c r="H26">
-        <v>85.6145833333333</v>
+        <v>169.055555555555</v>
       </c>
       <c r="J26">
-        <v>84.4861111111111</v>
+        <v>164.70238095238</v>
       </c>
       <c r="K26">
-        <v>81.8958333333333</v>
+        <v>161.694444444444</v>
       </c>
       <c r="M26">
-        <v>85.9583333333333</v>
+        <v>169.01190476190399</v>
       </c>
       <c r="N26">
-        <v>77.9791666666666</v>
+        <v>157.638888888888</v>
       </c>
       <c r="P26">
-        <v>80.9305555555555</v>
+        <v>170.369047619047</v>
       </c>
       <c r="Q26">
-        <v>86.6875</v>
+        <v>156.027777777777</v>
       </c>
       <c r="S26">
-        <v>86.1875</v>
+        <v>164.70238095238</v>
       </c>
       <c r="T26">
-        <v>75.8854166666666</v>
+        <v>165.25</v>
       </c>
       <c r="V26">
-        <v>81.8541666666666</v>
+        <v>167.72619047619</v>
       </c>
       <c r="W26">
-        <v>84.8854166666666</v>
+        <v>158.527777777777</v>
       </c>
       <c r="Y26">
-        <v>81.8333333333333</v>
+        <v>168.70238095238</v>
       </c>
       <c r="Z26">
-        <v>85.125</v>
+        <v>160.138888888888</v>
       </c>
       <c r="AB26">
-        <v>83.6388888888888</v>
+        <v>167.40476190476099</v>
       </c>
       <c r="AC26">
-        <v>79.9583333333333</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27">
-        <v>90.6180555555555</v>
+        <v>173.51190476190399</v>
       </c>
       <c r="B27">
-        <v>81.0729166666666</v>
+        <v>170.916666666666</v>
       </c>
       <c r="D27">
-        <v>87.6805555555555</v>
+        <v>177.15476190476099</v>
       </c>
       <c r="E27">
-        <v>85.8125</v>
+        <v>158.416666666666</v>
       </c>
       <c r="G27">
-        <v>84.7291666666666</v>
+        <v>169.916666666666</v>
       </c>
       <c r="H27">
-        <v>89.3645833333333</v>
+        <v>177.083333333333</v>
       </c>
       <c r="J27">
-        <v>87.7152777777777</v>
+        <v>171.27380952380901</v>
       </c>
       <c r="K27">
-        <v>86.4270833333333</v>
+        <v>168.916666666666</v>
       </c>
       <c r="M27">
-        <v>89.8125</v>
+        <v>176.21428571428501</v>
       </c>
       <c r="N27">
-        <v>81.5729166666666</v>
+        <v>163.055555555555</v>
       </c>
       <c r="P27">
-        <v>85.0972222222222</v>
+        <v>176.48809523809501</v>
       </c>
       <c r="Q27">
-        <v>89.8125</v>
+        <v>162.861111111111</v>
       </c>
       <c r="S27">
-        <v>89.9375</v>
+        <v>172.07142857142799</v>
       </c>
       <c r="T27">
-        <v>79.6354166666666</v>
+        <v>170.166666666666</v>
       </c>
       <c r="V27">
-        <v>85.2916666666666</v>
+        <v>174.22619047619</v>
       </c>
       <c r="W27">
-        <v>88.9791666666666</v>
+        <v>166.916666666666</v>
       </c>
       <c r="Y27">
-        <v>86.1041666666666</v>
+        <v>176.44047619047601</v>
       </c>
       <c r="Z27">
-        <v>88.09375</v>
+        <v>163.75</v>
       </c>
       <c r="AB27">
-        <v>87.8055555555555</v>
+        <v>174.02380952380901</v>
       </c>
       <c r="AC27">
-        <v>83.0833333333333</v>
+        <v>165.055555555555</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28">
-        <v>94.3680555555555</v>
+        <v>181.15476190476099</v>
       </c>
       <c r="B28">
-        <v>84.8229166666666</v>
+        <v>175.861111111111</v>
       </c>
       <c r="D28">
-        <v>92.1597222222222</v>
+        <v>184.25</v>
       </c>
       <c r="E28">
-        <v>88.46875</v>
+        <v>164.416666666666</v>
       </c>
       <c r="G28">
-        <v>88.0625</v>
+        <v>176.869047619047</v>
       </c>
       <c r="H28">
-        <v>93.7395833333333</v>
+        <v>184.083333333333</v>
       </c>
       <c r="J28">
-        <v>90.8402777777777</v>
+        <v>177.809523809523</v>
       </c>
       <c r="K28">
-        <v>91.1145833333333</v>
+        <v>175.555555555555</v>
       </c>
       <c r="M28">
-        <v>93.875</v>
+        <v>183.04761904761901</v>
       </c>
       <c r="N28">
-        <v>84.8541666666666</v>
+        <v>169</v>
       </c>
       <c r="P28">
-        <v>89.4722222222222</v>
+        <v>182.95238095238</v>
       </c>
       <c r="Q28">
-        <v>92.625</v>
+        <v>169.555555555555</v>
       </c>
       <c r="S28">
-        <v>93.1666666666666</v>
+        <v>178.65476190476099</v>
       </c>
       <c r="T28">
-        <v>84.1666666666666</v>
+        <v>177.694444444444</v>
       </c>
       <c r="V28">
-        <v>89.3541666666666</v>
+        <v>181.65476190476099</v>
       </c>
       <c r="W28">
-        <v>92.09375</v>
+        <v>172.361111111111</v>
       </c>
       <c r="Y28">
-        <v>89.3333333333333</v>
+        <v>184.059523809523</v>
       </c>
       <c r="Z28">
-        <v>92.625</v>
+        <v>169.75</v>
       </c>
       <c r="AB28">
-        <v>91.0347222222222</v>
+        <v>181.619047619047</v>
       </c>
       <c r="AC28">
-        <v>87.5729166666666</v>
+        <v>170.333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29">
-        <v>98.1180555555555</v>
+        <v>186.79761904761901</v>
       </c>
       <c r="B29">
-        <v>88.5729166666666</v>
+        <v>183.916666666666</v>
       </c>
       <c r="D29">
-        <v>95.9097222222222</v>
+        <v>190.892857142857</v>
       </c>
       <c r="E29">
-        <v>92.1354166666666</v>
+        <v>171.694444444444</v>
       </c>
       <c r="G29">
-        <v>91.5</v>
+        <v>182.166666666666</v>
       </c>
       <c r="H29">
-        <v>97.9583333333333</v>
+        <v>192.5</v>
       </c>
       <c r="J29">
-        <v>94.5902777777777</v>
+        <v>184.27380952380901</v>
       </c>
       <c r="K29">
-        <v>94.8645833333333</v>
+        <v>182.472222222222</v>
       </c>
       <c r="M29">
-        <v>98.0416666666666</v>
+        <v>189.21428571428501</v>
       </c>
       <c r="N29">
-        <v>87.9791666666666</v>
+        <v>176.055555555555</v>
       </c>
       <c r="P29">
-        <v>93.2222222222222</v>
+        <v>189.95238095238</v>
       </c>
       <c r="Q29">
-        <v>96.375</v>
+        <v>173.888888888888</v>
       </c>
       <c r="S29">
-        <v>96.9166666666666</v>
+        <v>185.84523809523799</v>
       </c>
       <c r="T29">
-        <v>87.9166666666666</v>
+        <v>182.361111111111</v>
       </c>
       <c r="V29">
-        <v>92.6875</v>
+        <v>188.90476190476099</v>
       </c>
       <c r="W29">
-        <v>96.2604166666666</v>
+        <v>177.555555555555</v>
       </c>
       <c r="Y29">
-        <v>92.875</v>
+        <v>190.833333333333</v>
       </c>
       <c r="Z29">
-        <v>96.6875</v>
+        <v>175.722222222222</v>
       </c>
       <c r="AB29">
-        <v>95.0972222222222</v>
+        <v>187.809523809523</v>
       </c>
       <c r="AC29">
-        <v>90.5208333333333</v>
+        <v>178.111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30">
-        <v>102.493055555555</v>
+        <v>193.083333333333</v>
       </c>
       <c r="B30">
-        <v>91.3854166666666</v>
+        <v>191.361111111111</v>
       </c>
       <c r="D30">
-        <v>99.5555555555555</v>
+        <v>197.90476190476099</v>
       </c>
       <c r="E30">
-        <v>95.9166666666666</v>
+        <v>177.666666666666</v>
       </c>
       <c r="G30">
-        <v>95.1458333333333</v>
+        <v>189.17857142857099</v>
       </c>
       <c r="H30">
-        <v>101.864583333333</v>
+        <v>196.916666666666</v>
       </c>
       <c r="J30">
-        <v>98.7569444444444</v>
+        <v>190.059523809523</v>
       </c>
       <c r="K30">
-        <v>97.9895833333333</v>
+        <v>188.972222222222</v>
       </c>
       <c r="M30">
-        <v>102.3125</v>
+        <v>196.04761904761901</v>
       </c>
       <c r="N30">
-        <v>90.9479166666666</v>
+        <v>182.888888888888</v>
       </c>
       <c r="P30">
-        <v>97.1805555555555</v>
+        <v>195.76190476190399</v>
       </c>
       <c r="Q30">
-        <v>99.8125</v>
+        <v>180.666666666666</v>
       </c>
       <c r="S30">
-        <v>100.770833333333</v>
+        <v>191.98809523809501</v>
       </c>
       <c r="T30">
-        <v>91.5104166666666</v>
+        <v>190.25</v>
       </c>
       <c r="V30">
-        <v>96.2291666666666</v>
+        <v>195.15476190476099</v>
       </c>
       <c r="W30">
-        <v>100.239583333333</v>
+        <v>185.083333333333</v>
       </c>
       <c r="Y30">
-        <v>96.625</v>
+        <v>198.15476190476099</v>
       </c>
       <c r="Z30">
-        <v>100.4375</v>
+        <v>180.305555555555</v>
       </c>
       <c r="AB30">
-        <v>98.6388888888888</v>
+        <v>194.73809523809501</v>
       </c>
       <c r="AC30">
-        <v>94.4583333333333</v>
+        <v>185.166666666666</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31">
-        <v>106.243055555555</v>
+        <v>198.95238095238</v>
       </c>
       <c r="B31">
-        <v>95.1354166666666</v>
+        <v>198.777777777777</v>
       </c>
       <c r="D31">
-        <v>103.826388888888</v>
+        <v>205.642857142857</v>
       </c>
       <c r="E31">
-        <v>98.8020833333333</v>
+        <v>182.055555555555</v>
       </c>
       <c r="G31">
-        <v>98.6875</v>
+        <v>195.20238095238</v>
       </c>
       <c r="H31">
-        <v>105.927083333333</v>
+        <v>202.638888888888</v>
       </c>
       <c r="J31">
-        <v>102.506944444444</v>
+        <v>196.47619047619</v>
       </c>
       <c r="K31">
-        <v>101.739583333333</v>
+        <v>195.777777777777</v>
       </c>
       <c r="M31">
-        <v>106.270833333333</v>
+        <v>202.809523809523</v>
       </c>
       <c r="N31">
-        <v>94.3854166666666</v>
+        <v>190.111111111111</v>
       </c>
       <c r="P31">
-        <v>101.243055555555</v>
+        <v>201.90476190476099</v>
       </c>
       <c r="Q31">
-        <v>103.09375</v>
+        <v>188</v>
       </c>
       <c r="S31">
-        <v>104.416666666666</v>
+        <v>198.60714285714201</v>
       </c>
       <c r="T31">
-        <v>95.4166666666666</v>
+        <v>195.361111111111</v>
       </c>
       <c r="V31">
-        <v>99.5625</v>
+        <v>201.02380952380901</v>
       </c>
       <c r="W31">
-        <v>104.614583333333</v>
+        <v>192.055555555555</v>
       </c>
       <c r="Y31">
-        <v>100.479166666666</v>
+        <v>204.35714285714201</v>
       </c>
       <c r="Z31">
-        <v>104.03125</v>
+        <v>185.5</v>
       </c>
       <c r="AB31">
-        <v>102.388888888888</v>
+        <v>199.73809523809501</v>
       </c>
       <c r="AC31">
-        <v>97.75</v>
+        <v>192.833333333333</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32">
-        <v>110.097222222222</v>
+        <v>205.20238095238</v>
       </c>
       <c r="B32">
-        <v>98.7291666666666</v>
+        <v>204.972222222222</v>
       </c>
       <c r="D32">
-        <v>107.784722222222</v>
+        <v>213.03571428571399</v>
       </c>
       <c r="E32">
-        <v>102.239583333333</v>
+        <v>186.583333333333</v>
       </c>
       <c r="G32">
-        <v>102.75</v>
+        <v>202.77380952380901</v>
       </c>
       <c r="H32">
-        <v>109.208333333333</v>
+        <v>208.638888888888</v>
       </c>
       <c r="J32">
-        <v>106.048611111111</v>
+        <v>202.27380952380901</v>
       </c>
       <c r="K32">
-        <v>105.802083333333</v>
+        <v>204.138888888888</v>
       </c>
       <c r="M32">
-        <v>110.020833333333</v>
+        <v>208.46428571428501</v>
       </c>
       <c r="N32">
-        <v>98.1354166666666</v>
+        <v>199.027777777777</v>
       </c>
       <c r="P32">
-        <v>104.784722222222</v>
+        <v>209.416666666666</v>
       </c>
       <c r="Q32">
-        <v>107.15625</v>
+        <v>193.694444444444</v>
       </c>
       <c r="S32">
-        <v>108.479166666666</v>
+        <v>205.642857142857</v>
       </c>
       <c r="T32">
-        <v>98.6979166666666</v>
+        <v>200.388888888888</v>
       </c>
       <c r="V32">
-        <v>103.3125</v>
+        <v>208.45238095238</v>
       </c>
       <c r="W32">
-        <v>108.28125</v>
+        <v>197.166666666666</v>
       </c>
       <c r="Y32">
-        <v>104.125</v>
+        <v>211.17857142857099</v>
       </c>
       <c r="Z32">
-        <v>107.604166666666</v>
+        <v>190.916666666666</v>
       </c>
       <c r="AB32">
-        <v>106.243055555555</v>
+        <v>206.92857142857099</v>
       </c>
       <c r="AC32">
-        <v>101.34375</v>
+        <v>197.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33">
-        <v>113.743055555555</v>
+        <v>212.10714285714201</v>
       </c>
       <c r="B33">
-        <v>102.635416666666</v>
+        <v>209.194444444444</v>
       </c>
       <c r="D33">
-        <v>111.951388888888</v>
+        <v>219.79761904761901</v>
       </c>
       <c r="E33">
-        <v>105.364583333333</v>
+        <v>193.361111111111</v>
       </c>
       <c r="G33">
-        <v>106.1875</v>
+        <v>208.92857142857099</v>
       </c>
       <c r="H33">
-        <v>113.427083333333</v>
+        <v>216.388888888888</v>
       </c>
       <c r="J33">
-        <v>109.381944444444</v>
+        <v>208.77380952380901</v>
       </c>
       <c r="K33">
-        <v>110.177083333333</v>
+        <v>210.305555555555</v>
       </c>
       <c r="M33">
-        <v>112.9375</v>
+        <v>214.88095238095201</v>
       </c>
       <c r="N33">
-        <v>103.135416666666</v>
+        <v>202.388888888888</v>
       </c>
       <c r="P33">
-        <v>108.326388888888</v>
+        <v>215.71428571428501</v>
       </c>
       <c r="Q33">
-        <v>111.21875</v>
+        <v>197.333333333333</v>
       </c>
       <c r="S33">
-        <v>112.333333333333</v>
+        <v>213.46428571428501</v>
       </c>
       <c r="T33">
-        <v>102.291666666666</v>
+        <v>204.694444444444</v>
       </c>
       <c r="V33">
-        <v>107.6875</v>
+        <v>215.166666666666</v>
       </c>
       <c r="W33">
-        <v>111.09375</v>
+        <v>201.5</v>
       </c>
       <c r="Y33">
-        <v>107.770833333333</v>
+        <v>217.416666666666</v>
       </c>
       <c r="Z33">
-        <v>111.510416666666</v>
+        <v>198.472222222222</v>
       </c>
       <c r="AB33">
-        <v>110.097222222222</v>
+        <v>212.95238095238</v>
       </c>
       <c r="AC33">
-        <v>104.895833333333</v>
+        <v>203.333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34">
-        <v>117.076388888888</v>
+        <v>218.38095238095201</v>
       </c>
       <c r="B34">
-        <v>107.010416666666</v>
+        <v>212.888888888888</v>
       </c>
       <c r="D34">
-        <v>115.152777777777</v>
+        <v>226.892857142857</v>
       </c>
       <c r="E34">
-        <v>109.895833333333</v>
+        <v>199.138888888888</v>
       </c>
       <c r="G34">
-        <v>109.729166666666</v>
+        <v>215.02380952380901</v>
       </c>
       <c r="H34">
-        <v>117.40625</v>
+        <v>223.055555555555</v>
       </c>
       <c r="J34">
-        <v>112.819444444444</v>
+        <v>214.29761904761901</v>
       </c>
       <c r="K34">
-        <v>114.395833333333</v>
+        <v>216.527777777777</v>
       </c>
       <c r="M34">
-        <v>116.993055555555</v>
+        <v>221.15476190476099</v>
       </c>
       <c r="N34">
-        <v>106.260416666666</v>
+        <v>209.638888888888</v>
       </c>
       <c r="P34">
-        <v>111.659722222222</v>
+        <v>221.60714285714201</v>
       </c>
       <c r="Q34">
-        <v>115.59375</v>
+        <v>204.25</v>
       </c>
       <c r="S34">
-        <v>116.291666666666</v>
+        <v>219.72619047619</v>
       </c>
       <c r="T34">
-        <v>105.729166666666</v>
+        <v>212.194444444444</v>
       </c>
       <c r="V34">
-        <v>111.958333333333</v>
+        <v>221.416666666666</v>
       </c>
       <c r="W34">
-        <v>114.0625</v>
+        <v>207.583333333333</v>
       </c>
       <c r="Y34">
-        <v>111.833333333333</v>
+        <v>224.23809523809501</v>
       </c>
       <c r="Z34">
-        <v>114.791666666666</v>
+        <v>205.222222222222</v>
       </c>
       <c r="AB34">
-        <v>114.368055555555</v>
+        <v>220.059523809523</v>
       </c>
       <c r="AC34">
-        <v>107.614583333333</v>
+        <v>206.75</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35">
-        <v>121.138888888888</v>
+        <v>223.869047619047</v>
       </c>
       <c r="B35">
-        <v>110.291666666666</v>
+        <v>220.75</v>
       </c>
       <c r="D35">
-        <v>119.319444444444</v>
+        <v>234.13095238095201</v>
       </c>
       <c r="E35">
-        <v>113.020833333333</v>
+        <v>204.361111111111</v>
       </c>
       <c r="G35">
-        <v>113.791666666666</v>
+        <v>221.892857142857</v>
       </c>
       <c r="H35">
-        <v>120.6875</v>
+        <v>227.25</v>
       </c>
       <c r="J35">
-        <v>116.569444444444</v>
+        <v>219.71428571428501</v>
       </c>
       <c r="K35">
-        <v>118.145833333333</v>
+        <v>221.666666666666</v>
       </c>
       <c r="M35">
-        <v>120.631944444444</v>
+        <v>227.09523809523799</v>
       </c>
       <c r="N35">
-        <v>110.010416666666</v>
+        <v>215.444444444444</v>
       </c>
       <c r="P35">
-        <v>115.409722222222</v>
+        <v>227.21428571428501</v>
       </c>
       <c r="Q35">
-        <v>119.34375</v>
+        <v>210.833333333333</v>
       </c>
       <c r="S35">
-        <v>120.354166666666</v>
+        <v>225.166666666666</v>
       </c>
       <c r="T35">
-        <v>109.010416666666</v>
+        <v>220.166666666666</v>
       </c>
       <c r="V35">
-        <v>115.083333333333</v>
+        <v>227.88095238095201</v>
       </c>
       <c r="W35">
-        <v>118.541666666666</v>
+        <v>212.722222222222</v>
       </c>
       <c r="Y35">
-        <v>116</v>
+        <v>231.92857142857099</v>
       </c>
       <c r="Z35">
-        <v>117.916666666666</v>
+        <v>209.166666666666</v>
       </c>
       <c r="AB35">
-        <v>118.534722222222</v>
+        <v>224.892857142857</v>
       </c>
       <c r="AC35">
-        <v>110.614583333333</v>
+        <v>214.138888888888</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36">
-        <v>125.305555555555</v>
+        <v>229.98809523809501</v>
       </c>
       <c r="B36">
-        <v>113.416666666666</v>
+        <v>226.805555555555</v>
       </c>
       <c r="D36">
-        <v>122.958333333333</v>
+        <v>241.619047619047</v>
       </c>
       <c r="E36">
-        <v>116.770833333333</v>
+        <v>208.222222222222</v>
       </c>
       <c r="G36">
-        <v>117.298611111111</v>
+        <v>227.869047619047</v>
       </c>
       <c r="H36">
-        <v>124.59375</v>
+        <v>233.083333333333</v>
       </c>
       <c r="J36">
-        <v>120.006944444444</v>
+        <v>226.76190476190399</v>
       </c>
       <c r="K36">
-        <v>122.364583333333</v>
+        <v>225.888888888888</v>
       </c>
       <c r="M36">
-        <v>124.277777777777</v>
+        <v>232.09523809523799</v>
       </c>
       <c r="N36">
-        <v>113.916666666666</v>
+        <v>222.666666666666</v>
       </c>
       <c r="P36">
-        <v>118.430555555555</v>
+        <v>233.916666666666</v>
       </c>
       <c r="Q36">
-        <v>124.020833333333</v>
+        <v>216.527777777777</v>
       </c>
       <c r="S36">
-        <v>123.375</v>
+        <v>231.85714285714201</v>
       </c>
       <c r="T36">
-        <v>113.645833333333</v>
+        <v>224.555555555555</v>
       </c>
       <c r="V36">
-        <v>119.145833333333</v>
+        <v>233.04761904761901</v>
       </c>
       <c r="W36">
-        <v>121.78125</v>
+        <v>218</v>
       </c>
       <c r="Y36">
-        <v>120.270833333333</v>
+        <v>237.809523809523</v>
       </c>
       <c r="Z36">
-        <v>120.552083333333</v>
+        <v>214.333333333333</v>
       </c>
       <c r="AB36">
-        <v>122.284722222222</v>
+        <v>230.04761904761901</v>
       </c>
       <c r="AC36">
-        <v>113.864583333333</v>
+        <v>217.666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37">
-        <v>129.472222222222</v>
+        <v>235.119047619047</v>
       </c>
       <c r="B37">
-        <v>116.375</v>
+        <v>234.388888888888</v>
       </c>
       <c r="D37">
-        <v>127.138888888888</v>
+        <v>247.42857142857099</v>
       </c>
       <c r="E37">
-        <v>119.583333333333</v>
+        <v>213.111111111111</v>
       </c>
       <c r="G37">
-        <v>120.930555555555</v>
+        <v>234.10714285714201</v>
       </c>
       <c r="H37">
-        <v>128.1875</v>
+        <v>238.305555555555</v>
       </c>
       <c r="J37">
-        <v>124.118055555555</v>
+        <v>233.28571428571399</v>
       </c>
       <c r="K37">
-        <v>125.489583333333</v>
+        <v>229.222222222222</v>
       </c>
       <c r="M37">
-        <v>128.756944444444</v>
+        <v>238.21428571428501</v>
       </c>
       <c r="N37">
-        <v>116.572916666666</v>
+        <v>229.055555555555</v>
       </c>
       <c r="P37">
-        <v>122.388888888888</v>
+        <v>240.166666666666</v>
       </c>
       <c r="Q37">
-        <v>127.333333333333</v>
+        <v>220.388888888888</v>
       </c>
       <c r="S37">
-        <v>126.291666666666</v>
+        <v>237.892857142857</v>
       </c>
       <c r="T37">
-        <v>118.604166666666</v>
+        <v>230.25</v>
       </c>
       <c r="V37">
-        <v>123</v>
+        <v>238.02380952380901</v>
       </c>
       <c r="W37">
-        <v>125.166666666666</v>
+        <v>224.833333333333</v>
       </c>
       <c r="Y37">
-        <v>124.333333333333</v>
+        <v>244.59523809523799</v>
       </c>
       <c r="Z37">
-        <v>123.666666666666</v>
+        <v>217.611111111111</v>
       </c>
       <c r="AB37">
-        <v>125.618055555555</v>
+        <v>235.97619047619</v>
       </c>
       <c r="AC37">
-        <v>117.947916666666</v>
+        <v>223.388888888888</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38">
-        <v>133.222222222222</v>
+        <v>240.809523809523</v>
       </c>
       <c r="B38">
-        <v>119.916666666666</v>
+        <v>241.111111111111</v>
       </c>
       <c r="D38">
-        <v>130.361111111111</v>
+        <v>253.04761904761901</v>
       </c>
       <c r="E38">
-        <v>123.958333333333</v>
+        <v>217.888888888888</v>
       </c>
       <c r="G38">
-        <v>124.305555555555</v>
+        <v>239.78571428571399</v>
       </c>
       <c r="H38">
-        <v>132.125</v>
+        <v>243.833333333333</v>
       </c>
       <c r="J38">
-        <v>127.972222222222</v>
+        <v>239.5</v>
       </c>
       <c r="K38">
-        <v>129.083333333333</v>
+        <v>233.166666666666</v>
       </c>
       <c r="M38">
-        <v>132.298611111111</v>
+        <v>244.119047619047</v>
       </c>
       <c r="N38">
-        <v>120.59375</v>
+        <v>232.722222222222</v>
       </c>
       <c r="P38">
-        <v>127.076388888888</v>
+        <v>245.059523809523</v>
       </c>
       <c r="Q38">
-        <v>129.510416666666</v>
+        <v>225.638888888888</v>
       </c>
       <c r="S38">
-        <v>130.5625</v>
+        <v>243.46428571428501</v>
       </c>
       <c r="T38">
-        <v>121.489583333333</v>
+        <v>236.027777777777</v>
       </c>
       <c r="V38">
-        <v>127.1875</v>
+        <v>242.92857142857099</v>
       </c>
       <c r="W38">
-        <v>128.010416666666</v>
+        <v>231.5</v>
       </c>
       <c r="Y38">
-        <v>127.979166666666</v>
+        <v>250.48809523809501</v>
       </c>
       <c r="Z38">
-        <v>127.40625</v>
+        <v>221.638888888888</v>
       </c>
       <c r="AB38">
-        <v>129.472222222222</v>
+        <v>241.95238095238</v>
       </c>
       <c r="AC38">
-        <v>121.541666666666</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39">
-        <v>137.284722222222</v>
+        <v>246.17857142857099</v>
       </c>
       <c r="B39">
-        <v>123.03125</v>
+        <v>246.916666666666</v>
       </c>
       <c r="D39">
-        <v>134.541666666666</v>
+        <v>258.142857142857</v>
       </c>
       <c r="E39">
-        <v>126.770833333333</v>
+        <v>224.888888888888</v>
       </c>
       <c r="G39">
-        <v>128.3125</v>
+        <v>244.95238095238</v>
       </c>
       <c r="H39">
-        <v>135.40625</v>
+        <v>249.111111111111</v>
       </c>
       <c r="J39">
-        <v>131.409722222222</v>
+        <v>244.44047619047601</v>
       </c>
       <c r="K39">
-        <v>133.302083333333</v>
+        <v>238.416666666666</v>
       </c>
       <c r="M39">
-        <v>135.958333333333</v>
+        <v>250.5</v>
       </c>
       <c r="N39">
-        <v>124.020833333333</v>
+        <v>236.833333333333</v>
       </c>
       <c r="P39">
-        <v>130.930555555555</v>
+        <v>249.79761904761901</v>
       </c>
       <c r="Q39">
-        <v>132.979166666666</v>
+        <v>234.138888888888</v>
       </c>
       <c r="S39">
-        <v>134.520833333333</v>
+        <v>248.96428571428501</v>
       </c>
       <c r="T39">
-        <v>124.760416666666</v>
+        <v>241.75</v>
       </c>
       <c r="V39">
-        <v>131.319444444444</v>
+        <v>247.77380952380901</v>
       </c>
       <c r="W39">
-        <v>130.979166666666</v>
+        <v>237.527777777777</v>
       </c>
       <c r="Y39">
-        <v>132.194444444444</v>
+        <v>254.95238095238</v>
       </c>
       <c r="Z39">
-        <v>130.166666666666</v>
+        <v>228.555555555555</v>
       </c>
       <c r="AB39">
-        <v>133.118055555555</v>
+        <v>247.04761904761901</v>
       </c>
       <c r="AC39">
-        <v>125.197916666666</v>
+        <v>231.777777777777</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40">
-        <v>141.138888888888</v>
+        <v>250.54761904761901</v>
       </c>
       <c r="B40">
-        <v>126.375</v>
+        <v>250.166666666666</v>
       </c>
       <c r="D40">
-        <v>138.4375</v>
+        <v>262.97619047619003</v>
       </c>
       <c r="E40">
-        <v>130.052083333333</v>
+        <v>230.833333333333</v>
       </c>
       <c r="G40">
-        <v>132.583333333333</v>
+        <v>251.65476190476099</v>
       </c>
       <c r="H40">
-        <v>138.25</v>
+        <v>253.361111111111</v>
       </c>
       <c r="J40">
-        <v>135.069444444444</v>
+        <v>248.869047619047</v>
       </c>
       <c r="K40">
-        <v>136.770833333333</v>
+        <v>243.416666666666</v>
       </c>
       <c r="M40">
-        <v>139.888888888888</v>
+        <v>256.72619047619003</v>
       </c>
       <c r="N40">
-        <v>127.458333333333</v>
+        <v>241.527777777777</v>
       </c>
       <c r="P40">
-        <v>133.944444444444</v>
+        <v>254.392857142857</v>
       </c>
       <c r="Q40">
-        <v>137.666666666666</v>
+        <v>239.75</v>
       </c>
       <c r="S40">
-        <v>138.270833333333</v>
+        <v>254.02380952380901</v>
       </c>
       <c r="T40">
-        <v>128.510416666666</v>
+        <v>246.944444444444</v>
       </c>
       <c r="V40">
-        <v>134.9375</v>
+        <v>252.79761904761901</v>
       </c>
       <c r="W40">
-        <v>134.510416666666</v>
+        <v>241.916666666666</v>
       </c>
       <c r="Y40">
-        <v>136.256944444444</v>
+        <v>259.65476190476102</v>
       </c>
       <c r="Z40">
-        <v>132.947916666666</v>
+        <v>236.805555555555</v>
       </c>
       <c r="AB40">
-        <v>136.868055555555</v>
+        <v>252.90476190476099</v>
       </c>
       <c r="AC40">
-        <v>128.78125</v>
+        <v>236.666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41">
-        <v>144.826388888888</v>
+        <v>255.90476190476099</v>
       </c>
       <c r="B41">
-        <v>129.96875</v>
+        <v>253.777777777777</v>
       </c>
       <c r="D41">
-        <v>142.569444444444</v>
+        <v>267.58333333333297</v>
       </c>
       <c r="E41">
-        <v>133.020833333333</v>
+        <v>234.972222222222</v>
       </c>
       <c r="G41">
-        <v>136.541666666666</v>
+        <v>257.36904761904702</v>
       </c>
       <c r="H41">
-        <v>141.4375</v>
+        <v>256.58333333333297</v>
       </c>
       <c r="J41">
-        <v>138.763888888888</v>
+        <v>253.29761904761901</v>
       </c>
       <c r="K41">
-        <v>140.270833333333</v>
+        <v>248.861111111111</v>
       </c>
       <c r="M41">
-        <v>143.423611111111</v>
+        <v>261.90476190476102</v>
       </c>
       <c r="N41">
-        <v>131.28125</v>
+        <v>243.777777777777</v>
       </c>
       <c r="P41">
-        <v>136.847222222222</v>
+        <v>259.309523809523</v>
       </c>
       <c r="Q41">
-        <v>142.104166666666</v>
+        <v>245.166666666666</v>
       </c>
       <c r="S41">
-        <v>142.25</v>
+        <v>259.46428571428498</v>
       </c>
       <c r="T41">
-        <v>131.625</v>
+        <v>250.138888888888</v>
       </c>
       <c r="V41">
-        <v>138.388888888888</v>
+        <v>258.059523809523</v>
       </c>
       <c r="W41">
-        <v>138.375</v>
+        <v>244.972222222222</v>
       </c>
       <c r="Y41">
-        <v>139.902777777777</v>
+        <v>265.69047619047598</v>
       </c>
       <c r="Z41">
-        <v>136.6875</v>
+        <v>241.055555555555</v>
       </c>
       <c r="AB41">
-        <v>140.770833333333</v>
+        <v>258.52380952380901</v>
       </c>
       <c r="AC41">
-        <v>132.21875</v>
+        <v>241.666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42">
-        <v>148.472222222222</v>
+        <v>260.92857142857099</v>
       </c>
       <c r="B42">
-        <v>133.875</v>
+        <v>255.722222222222</v>
       </c>
       <c r="D42">
-        <v>145.875</v>
+        <v>270.96428571428498</v>
       </c>
       <c r="E42">
-        <v>137.020833333333</v>
+        <v>240.194444444444</v>
       </c>
       <c r="G42">
-        <v>140.451388888888</v>
+        <v>262.34523809523802</v>
       </c>
       <c r="H42">
-        <v>144.239583333333</v>
+        <v>258.194444444444</v>
       </c>
       <c r="J42">
-        <v>142.826388888888</v>
+        <v>258.5</v>
       </c>
       <c r="K42">
-        <v>142.927083333333</v>
+        <v>253.277777777777</v>
       </c>
       <c r="M42">
-        <v>147.756944444444</v>
+        <v>267.27380952380901</v>
       </c>
       <c r="N42">
-        <v>133.572916666666</v>
+        <v>247.583333333333</v>
       </c>
       <c r="P42">
-        <v>140.701388888888</v>
+        <v>263.95238095238</v>
       </c>
       <c r="Q42">
-        <v>145.697916666666</v>
+        <v>250.333333333333</v>
       </c>
       <c r="S42">
-        <v>145.784722222222</v>
+        <v>264.22619047619003</v>
       </c>
       <c r="T42">
-        <v>135.197916666666</v>
+        <v>255.472222222222</v>
       </c>
       <c r="V42">
-        <v>142.1875</v>
+        <v>263.01190476190402</v>
       </c>
       <c r="W42">
-        <v>141.677083333333</v>
+        <v>248.527777777777</v>
       </c>
       <c r="Y42">
-        <v>143.743055555555</v>
+        <v>271.142857142857</v>
       </c>
       <c r="Z42">
-        <v>139.760416666666</v>
+        <v>247.111111111111</v>
       </c>
       <c r="AB42">
-        <v>144.520833333333</v>
+        <v>262.40476190476102</v>
       </c>
       <c r="AC42">
-        <v>135.510416666666</v>
+        <v>245.055555555555</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43">
-        <v>152.729166666666</v>
+        <v>265.27380952380901</v>
       </c>
       <c r="B43">
-        <v>136.53125</v>
+        <v>261.02777777777698</v>
       </c>
       <c r="D43">
-        <v>149.743055555555</v>
+        <v>273.98809523809501</v>
       </c>
       <c r="E43">
-        <v>140.302083333333</v>
+        <v>246.805555555555</v>
       </c>
       <c r="G43">
-        <v>143.854166666666</v>
+        <v>266.58333333333297</v>
       </c>
       <c r="H43">
-        <v>148.21875</v>
+        <v>261.638888888888</v>
       </c>
       <c r="J43">
-        <v>146.229166666666</v>
+        <v>262.13095238095201</v>
       </c>
       <c r="K43">
-        <v>146.822916666666</v>
+        <v>257.25</v>
       </c>
       <c r="M43">
-        <v>151.555555555555</v>
+        <v>271.916666666666</v>
       </c>
       <c r="N43">
-        <v>137.041666666666</v>
+        <v>250.861111111111</v>
       </c>
       <c r="P43">
-        <v>144.361111111111</v>
+        <v>268.34523809523802</v>
       </c>
       <c r="Q43">
-        <v>149.291666666666</v>
+        <v>253.638888888888</v>
       </c>
       <c r="S43">
-        <v>149.326388888888</v>
+        <v>267.95238095238</v>
       </c>
       <c r="T43">
-        <v>139.135416666666</v>
+        <v>260.444444444444</v>
       </c>
       <c r="V43">
-        <v>145.902777777777</v>
+        <v>268.04761904761898</v>
       </c>
       <c r="W43">
-        <v>145.270833333333</v>
+        <v>253.555555555555</v>
       </c>
       <c r="Y43">
-        <v>147.909722222222</v>
+        <v>275.642857142857</v>
       </c>
       <c r="Z43">
-        <v>142.71875</v>
+        <v>251.166666666666</v>
       </c>
       <c r="AB43">
-        <v>147.819444444444</v>
+        <v>267.20238095238</v>
       </c>
       <c r="AC43">
-        <v>139.5625</v>
+        <v>248.638888888888</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44">
-        <v>156.361111111111</v>
+        <v>268.86904761904702</v>
       </c>
       <c r="B44">
-        <v>139.958333333333</v>
+        <v>264.52777777777698</v>
       </c>
       <c r="D44">
-        <v>153.395833333333</v>
+        <v>277.11904761904702</v>
       </c>
       <c r="E44">
-        <v>143.447916666666</v>
+        <v>251.055555555555</v>
       </c>
       <c r="G44">
-        <v>148.013888888888</v>
+        <v>271.09523809523802</v>
       </c>
       <c r="H44">
-        <v>150.770833333333</v>
+        <v>264.55555555555497</v>
       </c>
       <c r="J44">
-        <v>150.083333333333</v>
+        <v>265.78571428571399</v>
       </c>
       <c r="K44">
-        <v>150.25</v>
+        <v>261.27777777777698</v>
       </c>
       <c r="M44">
-        <v>155.340277777777</v>
+        <v>275.46428571428498</v>
       </c>
       <c r="N44">
-        <v>140.28125</v>
+        <v>256.138888888888</v>
       </c>
       <c r="P44">
-        <v>148.3125</v>
+        <v>271.44047619047598</v>
       </c>
       <c r="Q44">
-        <v>152.489583333333</v>
+        <v>257.972222222222</v>
       </c>
       <c r="S44">
-        <v>152.736111111111</v>
+        <v>271.75</v>
       </c>
       <c r="T44">
-        <v>143.145833333333</v>
+        <v>262.58333333333297</v>
       </c>
       <c r="V44">
-        <v>149.3125</v>
+        <v>271.666666666666</v>
       </c>
       <c r="W44">
-        <v>149.489583333333</v>
+        <v>257</v>
       </c>
       <c r="Y44">
-        <v>151.597222222222</v>
+        <v>280.17857142857099</v>
       </c>
       <c r="Z44">
-        <v>146.1875</v>
+        <v>253.694444444444</v>
       </c>
       <c r="AB44">
-        <v>151.569444444444</v>
+        <v>270</v>
       </c>
       <c r="AC44">
-        <v>143.104166666666</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45">
-        <v>159.729166666666</v>
+        <v>273</v>
       </c>
       <c r="B45">
-        <v>143.78125</v>
+        <v>264.33333333333297</v>
       </c>
       <c r="D45">
-        <v>157.291666666666</v>
+        <v>279.98809523809501</v>
       </c>
       <c r="E45">
-        <v>146.520833333333</v>
+        <v>256.25</v>
       </c>
       <c r="G45">
-        <v>151.388888888888</v>
+        <v>273.29761904761898</v>
       </c>
       <c r="H45">
-        <v>154.291666666666</v>
+        <v>266.416666666666</v>
       </c>
       <c r="J45">
-        <v>153.416666666666</v>
+        <v>268.73809523809501</v>
       </c>
       <c r="K45">
-        <v>154.5</v>
+        <v>263.944444444444</v>
       </c>
       <c r="M45">
-        <v>159.159722222222</v>
+        <v>277.54761904761898</v>
       </c>
       <c r="N45">
-        <v>143.34375</v>
+        <v>260.722222222222</v>
       </c>
       <c r="P45">
-        <v>151.680555555555</v>
+        <v>274.97619047619003</v>
       </c>
       <c r="Q45">
-        <v>156.145833333333</v>
+        <v>258.944444444444</v>
       </c>
       <c r="S45">
-        <v>156.298611111111</v>
+        <v>274.72619047619003</v>
       </c>
       <c r="T45">
-        <v>146.84375</v>
+        <v>266.194444444444</v>
       </c>
       <c r="V45">
-        <v>152.652777777777</v>
+        <v>276.46428571428498</v>
       </c>
       <c r="W45">
-        <v>153.354166666666</v>
+        <v>259.36111111111097</v>
       </c>
       <c r="Y45">
-        <v>154.861111111111</v>
+        <v>282.28571428571399</v>
       </c>
       <c r="Z45">
-        <v>149.833333333333</v>
+        <v>254.333333333333</v>
       </c>
       <c r="AB45">
-        <v>155.006944444444</v>
+        <v>271.92857142857099</v>
       </c>
       <c r="AC45">
-        <v>147.114583333333</v>
+        <v>256.27777777777698</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46">
-        <v>163.756944444444</v>
+        <v>273.76190476190402</v>
       </c>
       <c r="B46">
-        <v>146.90625</v>
+        <v>265.11111111111097</v>
       </c>
       <c r="D46">
-        <v>161.111111111111</v>
+        <v>281.059523809523</v>
       </c>
       <c r="E46">
-        <v>149.833333333333</v>
+        <v>259.86111111111097</v>
       </c>
       <c r="G46">
-        <v>155.395833333333</v>
+        <v>273.88095238095201</v>
       </c>
       <c r="H46">
-        <v>157.572916666666</v>
+        <v>269.05555555555497</v>
       </c>
       <c r="J46">
-        <v>156.645833333333</v>
+        <v>270.63095238095201</v>
       </c>
       <c r="K46">
-        <v>158.697916666666</v>
+        <v>266.75</v>
       </c>
       <c r="M46">
-        <v>162.541666666666</v>
+        <v>278.19047619047598</v>
       </c>
       <c r="N46">
-        <v>147.4375</v>
+        <v>265.888888888888</v>
       </c>
       <c r="P46">
-        <v>155.652777777777</v>
+        <v>277.88095238095201</v>
       </c>
       <c r="Q46">
-        <v>159.270833333333</v>
+        <v>260.83333333333297</v>
       </c>
       <c r="S46">
-        <v>160.326388888888</v>
+        <v>276.5</v>
       </c>
       <c r="T46">
-        <v>149.96875</v>
+        <v>268.5</v>
       </c>
       <c r="V46">
-        <v>156.5</v>
+        <v>277.83333333333297</v>
       </c>
       <c r="W46">
-        <v>156.5</v>
+        <v>262.5</v>
       </c>
       <c r="Y46">
-        <v>159.027777777777</v>
+        <v>282.40476190476102</v>
       </c>
       <c r="Z46">
-        <v>152.541666666666</v>
+        <v>258.27777777777698</v>
       </c>
       <c r="AB46">
-        <v>158.805555555555</v>
+        <v>272.61904761904702</v>
       </c>
       <c r="AC46">
-        <v>150.5</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47">
-        <v>166.881944444444</v>
+        <v>275.96428571428498</v>
       </c>
       <c r="B47">
-        <v>151.46875</v>
+        <v>266.08333333333297</v>
       </c>
       <c r="D47">
-        <v>165.368055555555</v>
+        <v>280.5</v>
       </c>
       <c r="E47">
-        <v>152.447916666666</v>
+        <v>262.388888888888</v>
       </c>
       <c r="G47">
-        <v>159.659722222222</v>
+        <v>275.09523809523802</v>
       </c>
       <c r="H47">
-        <v>160.052083333333</v>
+        <v>271.33333333333297</v>
       </c>
       <c r="J47">
-        <v>160.1875</v>
+        <v>273.32142857142799</v>
       </c>
       <c r="K47">
-        <v>162.552083333333</v>
+        <v>268.472222222222</v>
       </c>
       <c r="M47">
-        <v>166.395833333333</v>
+        <v>279.01190476190402</v>
       </c>
       <c r="N47">
-        <v>150.78125</v>
+        <v>268.194444444444</v>
       </c>
       <c r="P47">
-        <v>159.819444444444</v>
+        <v>279.392857142857</v>
       </c>
       <c r="Q47">
-        <v>162.229166666666</v>
+        <v>262.52777777777698</v>
       </c>
       <c r="S47">
-        <v>163.680555555555</v>
+        <v>277.65476190476102</v>
       </c>
       <c r="T47">
-        <v>154.145833333333</v>
+        <v>271.36111111111097</v>
       </c>
       <c r="V47">
-        <v>159.833333333333</v>
+        <v>278.32142857142799</v>
       </c>
       <c r="W47">
-        <v>159.875</v>
+        <v>264.58333333333297</v>
       </c>
       <c r="Y47">
-        <v>162.354166666666</v>
+        <v>282.36904761904702</v>
       </c>
       <c r="Z47">
-        <v>156.59375</v>
+        <v>262.694444444444</v>
       </c>
       <c r="AB47">
-        <v>162.048611111111</v>
+        <v>274.82142857142799</v>
       </c>
       <c r="AC47">
-        <v>154.59375</v>
+        <v>262.972222222222</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48">
-        <v>170.618055555555</v>
+        <v>278.42857142857099</v>
       </c>
       <c r="B48">
-        <v>154.447916666666</v>
+        <v>267.666666666666</v>
       </c>
       <c r="D48">
-        <v>169.4375</v>
+        <v>279.32142857142799</v>
       </c>
       <c r="E48">
-        <v>155.260416666666</v>
+        <v>265.58333333333297</v>
       </c>
       <c r="G48">
-        <v>163.270833333333</v>
+        <v>277.04761904761898</v>
       </c>
       <c r="H48">
-        <v>163.59375</v>
+        <v>272.444444444444</v>
       </c>
       <c r="J48">
-        <v>163.597222222222</v>
+        <v>274.32142857142799</v>
       </c>
       <c r="K48">
-        <v>166.3125</v>
+        <v>269.80555555555497</v>
       </c>
       <c r="M48">
-        <v>169.3125</v>
+        <v>279.19047619047598</v>
       </c>
       <c r="N48">
-        <v>155.697916666666</v>
+        <v>269</v>
       </c>
       <c r="P48">
-        <v>164.076388888888</v>
+        <v>279.15476190476102</v>
       </c>
       <c r="Q48">
-        <v>164.71875</v>
+        <v>265.30555555555497</v>
       </c>
       <c r="S48">
-        <v>167.208333333333</v>
+        <v>277.44047619047598</v>
       </c>
       <c r="T48">
-        <v>157.4375</v>
+        <v>271.972222222222</v>
       </c>
       <c r="V48">
-        <v>163.270833333333</v>
+        <v>279.166666666666</v>
       </c>
       <c r="W48">
-        <v>164.052083333333</v>
+        <v>268.166666666666</v>
       </c>
       <c r="Y48">
-        <v>166.013888888888</v>
+        <v>281.25</v>
       </c>
       <c r="Z48">
-        <v>159.8125</v>
+        <v>265.416666666666</v>
       </c>
       <c r="AB48">
-        <v>165.402777777777</v>
+        <v>275.17857142857099</v>
       </c>
       <c r="AC48">
-        <v>158.395833333333</v>
+        <v>266.58333333333297</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49">
-        <v>174.743055555555</v>
+        <v>278.86904761904702</v>
       </c>
       <c r="B49">
-        <v>157.135416666666</v>
+        <v>267.86111111111097</v>
       </c>
       <c r="D49">
-        <v>173.4375</v>
+        <v>277.40476190476102</v>
       </c>
       <c r="E49">
-        <v>157.84375</v>
+        <v>265.83333333333297</v>
       </c>
       <c r="G49">
-        <v>166.520833333333</v>
+        <v>276.142857142857</v>
       </c>
       <c r="H49">
-        <v>167.84375</v>
+        <v>271.888888888888</v>
       </c>
       <c r="J49">
-        <v>167.708333333333</v>
+        <v>275.72619047619003</v>
       </c>
       <c r="K49">
-        <v>168.979166666666</v>
+        <v>271.638888888888</v>
       </c>
       <c r="M49">
-        <v>172.888888888888</v>
+        <v>277.40476190476102</v>
       </c>
       <c r="N49">
-        <v>158.958333333333</v>
+        <v>270.944444444444</v>
       </c>
       <c r="P49">
-        <v>167.951388888888</v>
+        <v>278.44047619047598</v>
       </c>
       <c r="Q49">
-        <v>167.989583333333</v>
+        <v>266.52777777777698</v>
       </c>
       <c r="S49">
-        <v>170.694444444444</v>
+        <v>276.21428571428498</v>
       </c>
       <c r="T49">
-        <v>161.041666666666</v>
+        <v>270.61111111111097</v>
       </c>
       <c r="V49">
-        <v>166.430555555555</v>
+        <v>278.83333333333297</v>
       </c>
       <c r="W49">
-        <v>167.520833333333</v>
+        <v>269.722222222222</v>
       </c>
       <c r="Y49">
-        <v>169.618055555555</v>
+        <v>279.27380952380901</v>
       </c>
       <c r="Z49">
-        <v>163.239583333333</v>
+        <v>266.916666666666</v>
       </c>
       <c r="AB49">
-        <v>168.104166666666</v>
+        <v>274.45238095238</v>
       </c>
       <c r="AC49">
-        <v>163.427083333333</v>
+        <v>268.166666666666</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50">
-        <v>177.930555555555</v>
+        <v>277.85714285714198</v>
       </c>
       <c r="B50">
-        <v>160.5625</v>
+        <v>269.444444444444</v>
       </c>
       <c r="D50">
-        <v>176.381944444444</v>
+        <v>275.32142857142799</v>
       </c>
       <c r="E50">
-        <v>161.760416666666</v>
+        <v>266.916666666666</v>
       </c>
       <c r="G50">
-        <v>170.236111111111</v>
+        <v>275.23809523809501</v>
       </c>
       <c r="H50">
-        <v>171.020833333333</v>
+        <v>270.55555555555497</v>
       </c>
       <c r="J50">
-        <v>171.375</v>
+        <v>275.79761904761898</v>
       </c>
       <c r="K50">
-        <v>172.5625</v>
+        <v>271.25</v>
       </c>
       <c r="M50">
-        <v>176.159722222222</v>
+        <v>277.94047619047598</v>
       </c>
       <c r="N50">
-        <v>162.96875</v>
+        <v>271.138888888888</v>
       </c>
       <c r="P50">
-        <v>171.222222222222</v>
+        <v>277.46428571428498</v>
       </c>
       <c r="Q50">
-        <v>171.833333333333</v>
+        <v>267.02777777777698</v>
       </c>
       <c r="S50">
-        <v>173.423611111111</v>
+        <v>275.98809523809501</v>
       </c>
       <c r="T50">
-        <v>165.572916666666</v>
+        <v>271.02777777777698</v>
       </c>
       <c r="V50">
-        <v>170.020833333333</v>
+        <v>277.666666666666</v>
       </c>
       <c r="W50">
-        <v>170.885416666666</v>
+        <v>270.33333333333297</v>
       </c>
       <c r="Y50">
-        <v>173.340277777777</v>
+        <v>277.17857142857099</v>
       </c>
       <c r="Z50">
-        <v>166.989583333333</v>
+        <v>268.472222222222</v>
       </c>
       <c r="AB50">
-        <v>171.458333333333</v>
+        <v>273.90476190476102</v>
       </c>
       <c r="AC50">
-        <v>167.270833333333</v>
+        <v>268.444444444444</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51">
-        <v>180.555555555555</v>
+        <v>277.35714285714198</v>
       </c>
       <c r="B51">
-        <v>164.875</v>
+        <v>269.05555555555497</v>
       </c>
       <c r="D51">
-        <v>180.243055555555</v>
+        <v>273.76190476190402</v>
       </c>
       <c r="E51">
-        <v>164.59375</v>
+        <v>270</v>
       </c>
       <c r="G51">
-        <v>174.111111111111</v>
+        <v>274.36904761904702</v>
       </c>
       <c r="H51">
-        <v>173.916666666666</v>
+        <v>270.58333333333297</v>
       </c>
       <c r="J51">
-        <v>175.722222222222</v>
+        <v>273.58333333333297</v>
       </c>
       <c r="K51">
-        <v>175.375</v>
+        <v>271.416666666666</v>
       </c>
       <c r="M51">
-        <v>180.243055555555</v>
+        <v>275.5</v>
       </c>
       <c r="N51">
-        <v>166.010416666666</v>
+        <v>270.722222222222</v>
       </c>
       <c r="P51">
-        <v>174.493055555555</v>
+        <v>275.57142857142799</v>
       </c>
       <c r="Q51">
-        <v>175.885416666666</v>
+        <v>268.222222222222</v>
       </c>
       <c r="S51">
-        <v>176.715277777777</v>
+        <v>275.19047619047598</v>
       </c>
       <c r="T51">
-        <v>169.34375</v>
+        <v>268.444444444444</v>
       </c>
       <c r="V51">
-        <v>173.354166666666</v>
+        <v>276.42857142857099</v>
       </c>
       <c r="W51">
-        <v>174.802083333333</v>
+        <v>270.77777777777698</v>
       </c>
       <c r="Y51">
-        <v>176.583333333333</v>
+        <v>274.86904761904702</v>
       </c>
       <c r="Z51">
-        <v>170.25</v>
+        <v>269.416666666666</v>
       </c>
       <c r="AB51">
-        <v>175.4375</v>
+        <v>272.059523809523</v>
       </c>
       <c r="AC51">
-        <v>170.21875</v>
+        <v>269.638888888888</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52">
-        <v>183.993055555555</v>
+        <v>275.20238095238</v>
       </c>
       <c r="B52">
-        <v>168.552083333333</v>
+        <v>266.638888888888</v>
       </c>
       <c r="D52">
-        <v>183.805555555555</v>
+        <v>272.03571428571399</v>
       </c>
       <c r="E52">
-        <v>167.708333333333</v>
+        <v>268.58333333333297</v>
       </c>
       <c r="G52">
-        <v>177.590277777777</v>
+        <v>272.71428571428498</v>
       </c>
       <c r="H52">
-        <v>177.322916666666</v>
+        <v>269.666666666666</v>
       </c>
       <c r="J52">
-        <v>179.395833333333</v>
+        <v>271.58333333333297</v>
       </c>
       <c r="K52">
-        <v>178.53125</v>
+        <v>271.638888888888</v>
       </c>
       <c r="M52">
-        <v>184.076388888888</v>
+        <v>273.77380952380901</v>
       </c>
       <c r="N52">
-        <v>169.010416666666</v>
+        <v>270.194444444444</v>
       </c>
       <c r="P52">
-        <v>178.395833333333</v>
+        <v>273.78571428571399</v>
       </c>
       <c r="Q52">
-        <v>178.989583333333</v>
+        <v>268.944444444444</v>
       </c>
       <c r="S52">
-        <v>180.881944444444</v>
+        <v>273.28571428571399</v>
       </c>
       <c r="T52">
-        <v>171.59375</v>
+        <v>267.55555555555497</v>
       </c>
       <c r="V52">
-        <v>177.027777777777</v>
+        <v>274.46428571428498</v>
       </c>
       <c r="W52">
-        <v>177.666666666666</v>
+        <v>269.58333333333297</v>
       </c>
       <c r="Y52">
-        <v>180.194444444444</v>
+        <v>272.67857142857099</v>
       </c>
       <c r="Z52">
-        <v>173.833333333333</v>
+        <v>271.52777777777698</v>
       </c>
       <c r="AB52">
-        <v>179.076388888888</v>
+        <v>271.78571428571399</v>
       </c>
       <c r="AC52">
-        <v>173.802083333333</v>
+        <v>269.166666666666</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53">
-        <v>188.25</v>
+        <v>273.166666666666</v>
       </c>
       <c r="B53">
-        <v>171.125</v>
+        <v>264.83333333333297</v>
       </c>
       <c r="D53">
-        <v>187.9375</v>
+        <v>269.77380952380901</v>
       </c>
       <c r="E53">
-        <v>170.635416666666</v>
+        <v>266.86111111111097</v>
       </c>
       <c r="G53">
-        <v>180.791666666666</v>
+        <v>271.70238095238</v>
       </c>
       <c r="H53">
-        <v>181.395833333333</v>
+        <v>267.36111111111097</v>
       </c>
       <c r="J53">
-        <v>183.25</v>
+        <v>269.26190476190402</v>
       </c>
       <c r="K53">
-        <v>181.5</v>
+        <v>269.61111111111097</v>
       </c>
       <c r="M53">
-        <v>187.951388888888</v>
+        <v>271.96428571428498</v>
       </c>
       <c r="N53">
-        <v>171.614583333333</v>
+        <v>269.194444444444</v>
       </c>
       <c r="P53">
-        <v>182.430555555555</v>
+        <v>271.86904761904702</v>
       </c>
       <c r="Q53">
-        <v>182.020833333333</v>
+        <v>269.52777777777698</v>
       </c>
       <c r="S53">
-        <v>184.645833333333</v>
+        <v>270.666666666666</v>
       </c>
       <c r="T53">
-        <v>174.364583333333</v>
+        <v>265.55555555555497</v>
       </c>
       <c r="V53">
-        <v>180.569444444444</v>
+        <v>272.809523809523</v>
       </c>
       <c r="W53">
-        <v>180.8125</v>
+        <v>269.444444444444</v>
       </c>
       <c r="Y53">
-        <v>183.486111111111</v>
+        <v>270.29761904761898</v>
       </c>
       <c r="Z53">
-        <v>177.895833333333</v>
+        <v>273.86111111111097</v>
       </c>
       <c r="AB53">
-        <v>183.027777777777</v>
+        <v>270.059523809523</v>
       </c>
       <c r="AC53">
-        <v>176.75</v>
+        <v>268.86111111111097</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54">
-        <v>192.993055555555</v>
+        <v>270.78571428571399</v>
       </c>
       <c r="B54">
-        <v>172.71875</v>
+        <v>262.61111111111097</v>
       </c>
       <c r="D54">
-        <v>191.4375</v>
+        <v>267.45238095238</v>
       </c>
       <c r="E54">
-        <v>173.927083333333</v>
+        <v>265.05555555555497</v>
       </c>
       <c r="G54">
-        <v>184.166666666666</v>
+        <v>269.94047619047598</v>
       </c>
       <c r="H54">
-        <v>185</v>
+        <v>265.694444444444</v>
       </c>
       <c r="J54">
-        <v>186.854166666666</v>
+        <v>266.94047619047598</v>
       </c>
       <c r="K54">
-        <v>185.052083333333</v>
+        <v>267.472222222222</v>
       </c>
       <c r="M54">
-        <v>191.416666666666</v>
+        <v>269.40476190476102</v>
       </c>
       <c r="N54">
-        <v>174.916666666666</v>
+        <v>267.388888888888</v>
       </c>
       <c r="P54">
-        <v>186.319444444444</v>
+        <v>269.86904761904702</v>
       </c>
       <c r="Q54">
-        <v>184.979166666666</v>
+        <v>267.75</v>
       </c>
       <c r="S54">
-        <v>187.965277777777</v>
+        <v>269.809523809523</v>
       </c>
       <c r="T54">
-        <v>178.177083333333</v>
+        <v>263.33333333333297</v>
       </c>
       <c r="V54">
-        <v>183.916666666666</v>
+        <v>270.36904761904702</v>
       </c>
       <c r="W54">
-        <v>184.416666666666</v>
+        <v>267.138888888888</v>
       </c>
       <c r="Y54">
-        <v>187.041666666666</v>
+        <v>267.85714285714198</v>
       </c>
       <c r="Z54">
-        <v>180.8125</v>
+        <v>272.222222222222</v>
       </c>
       <c r="AB54">
-        <v>186.166666666666</v>
+        <v>268.53571428571399</v>
       </c>
       <c r="AC54">
-        <v>181.083333333333</v>
+        <v>266.972222222222</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55">
-        <v>195.659722222222</v>
+        <v>268.52380952380901</v>
       </c>
       <c r="B55">
-        <v>177.635416666666</v>
+        <v>260.11111111111097</v>
       </c>
       <c r="D55">
-        <v>194.743055555555</v>
+        <v>265.392857142857</v>
       </c>
       <c r="E55">
-        <v>177.635416666666</v>
+        <v>264.08333333333297</v>
       </c>
       <c r="G55">
-        <v>188.152777777777</v>
+        <v>267.61904761904702</v>
       </c>
       <c r="H55">
-        <v>187.395833333333</v>
+        <v>263.888888888888</v>
       </c>
       <c r="J55">
-        <v>189.875</v>
+        <v>264.61904761904702</v>
       </c>
       <c r="K55">
-        <v>188.6875</v>
+        <v>265.11111111111097</v>
       </c>
       <c r="M55">
-        <v>195.208333333333</v>
+        <v>266.85714285714198</v>
       </c>
       <c r="N55">
-        <v>177.395833333333</v>
+        <v>266</v>
       </c>
       <c r="P55">
-        <v>189.229166666666</v>
+        <v>267.42857142857099</v>
       </c>
       <c r="Q55">
-        <v>188.989583333333</v>
+        <v>265.888888888888</v>
       </c>
       <c r="S55">
-        <v>192.034722222222</v>
+        <v>267.75</v>
       </c>
       <c r="T55">
-        <v>180.697916666666</v>
+        <v>260.694444444444</v>
       </c>
       <c r="V55">
-        <v>186.944444444444</v>
+        <v>268.54761904761898</v>
       </c>
       <c r="W55">
-        <v>188.291666666666</v>
+        <v>264.05555555555497</v>
       </c>
       <c r="Y55">
-        <v>190.736111111111</v>
+        <v>265.17857142857099</v>
       </c>
       <c r="Z55">
-        <v>184.1875</v>
+        <v>270.138888888888</v>
       </c>
       <c r="AB55">
-        <v>189.5</v>
+        <v>266.73809523809501</v>
       </c>
       <c r="AC55">
-        <v>185.333333333333</v>
+        <v>266.83333333333297</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56">
-        <v>198.798611111111</v>
+        <v>266.32142857142799</v>
       </c>
       <c r="B56">
-        <v>181.635416666666</v>
+        <v>258.02777777777698</v>
       </c>
       <c r="D56">
-        <v>198.986111111111</v>
+        <v>263.13095238095201</v>
       </c>
       <c r="E56">
-        <v>180.604166666666</v>
+        <v>262.694444444444</v>
       </c>
       <c r="G56">
-        <v>192.048611111111</v>
+        <v>265.29761904761898</v>
       </c>
       <c r="H56">
-        <v>190.177083333333</v>
+        <v>261.52777777777698</v>
       </c>
       <c r="J56">
-        <v>193.041666666666</v>
+        <v>262.11904761904702</v>
       </c>
       <c r="K56">
-        <v>192.5625</v>
+        <v>263.27777777777698</v>
       </c>
       <c r="M56">
-        <v>198.840277777777</v>
+        <v>264.392857142857</v>
       </c>
       <c r="N56">
-        <v>179.90625</v>
+        <v>264.194444444444</v>
       </c>
       <c r="P56">
-        <v>192.895833333333</v>
+        <v>264.76190476190402</v>
       </c>
       <c r="Q56">
-        <v>192.072916666666</v>
+        <v>264.222222222222</v>
       </c>
       <c r="S56">
-        <v>194.673611111111</v>
+        <v>266.20238095238</v>
       </c>
       <c r="T56">
-        <v>185.322916666666</v>
+        <v>258.194444444444</v>
       </c>
       <c r="V56">
-        <v>190.506944444444</v>
+        <v>266.19047619047598</v>
       </c>
       <c r="W56">
-        <v>191.739583333333</v>
+        <v>262.11111111111097</v>
       </c>
       <c r="Y56">
-        <v>194.027777777777</v>
+        <v>262.79761904761898</v>
       </c>
       <c r="Z56">
-        <v>188</v>
+        <v>268.472222222222</v>
       </c>
       <c r="AB56">
-        <v>193.326388888888</v>
+        <v>264.59523809523802</v>
       </c>
       <c r="AC56">
-        <v>188.927083333333</v>
+        <v>264.722222222222</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57">
-        <v>202.256944444444</v>
+        <v>263.82142857142799</v>
       </c>
       <c r="B57">
-        <v>185.114583333333</v>
+        <v>256.08333333333297</v>
       </c>
       <c r="D57">
-        <v>202.972222222222</v>
+        <v>261.04761904761898</v>
       </c>
       <c r="E57">
-        <v>183.416666666666</v>
+        <v>261.444444444444</v>
       </c>
       <c r="G57">
-        <v>195.145833333333</v>
+        <v>262.85714285714198</v>
       </c>
       <c r="H57">
-        <v>193.864583333333</v>
+        <v>259.444444444444</v>
       </c>
       <c r="J57">
-        <v>196.965277777777</v>
+        <v>259.88095238095201</v>
       </c>
       <c r="K57">
-        <v>195.84375</v>
+        <v>262.5</v>
       </c>
       <c r="M57">
-        <v>202.361111111111</v>
+        <v>262.07142857142799</v>
       </c>
       <c r="N57">
-        <v>182.708333333333</v>
+        <v>261.27777777777698</v>
       </c>
       <c r="P57">
-        <v>196.0625</v>
+        <v>262.08333333333297</v>
       </c>
       <c r="Q57">
-        <v>195.40625</v>
+        <v>262.138888888888</v>
       </c>
       <c r="S57">
-        <v>198.263888888888</v>
+        <v>264.059523809523</v>
       </c>
       <c r="T57">
-        <v>188.979166666666</v>
+        <v>254.861111111111</v>
       </c>
       <c r="V57">
-        <v>193.6875</v>
+        <v>263.75</v>
       </c>
       <c r="W57">
-        <v>195.385416666666</v>
+        <v>259.58333333333297</v>
       </c>
       <c r="Y57">
-        <v>197.993055555555</v>
+        <v>260.47619047619003</v>
       </c>
       <c r="Z57">
-        <v>190.96875</v>
+        <v>265.55555555555497</v>
       </c>
       <c r="AB57">
-        <v>197.326388888888</v>
+        <v>262.559523809523</v>
       </c>
       <c r="AC57">
-        <v>191.677083333333</v>
+        <v>262.36111111111097</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58">
-        <v>206.166666666666</v>
+        <v>261.79761904761898</v>
       </c>
       <c r="B58">
-        <v>187.458333333333</v>
+        <v>253.583333333333</v>
       </c>
       <c r="D58">
-        <v>205.770833333333</v>
+        <v>258.54761904761898</v>
       </c>
       <c r="E58">
-        <v>187.34375</v>
+        <v>259.166666666666</v>
       </c>
       <c r="G58">
-        <v>198.416666666666</v>
+        <v>261.21428571428498</v>
       </c>
       <c r="H58">
-        <v>197.75</v>
+        <v>255.833333333333</v>
       </c>
       <c r="J58">
-        <v>200.784722222222</v>
+        <v>258.03571428571399</v>
       </c>
       <c r="K58">
-        <v>199.072916666666</v>
+        <v>260.02777777777698</v>
       </c>
       <c r="M58">
-        <v>205.673611111111</v>
+        <v>259.809523809523</v>
       </c>
       <c r="N58">
-        <v>186.53125</v>
+        <v>258.77777777777698</v>
       </c>
       <c r="P58">
-        <v>199.923611111111</v>
+        <v>259.70238095238</v>
       </c>
       <c r="Q58">
-        <v>197.864583333333</v>
+        <v>260.02777777777698</v>
       </c>
       <c r="S58">
-        <v>201.958333333333</v>
+        <v>262.69047619047598</v>
       </c>
       <c r="T58">
-        <v>191.479166666666</v>
+        <v>251.944444444444</v>
       </c>
       <c r="V58">
-        <v>196.965277777777</v>
+        <v>260.95238095238</v>
       </c>
       <c r="W58">
-        <v>198.927083333333</v>
+        <v>257.77777777777698</v>
       </c>
       <c r="Y58">
-        <v>201.777777777777</v>
+        <v>257.97619047619003</v>
       </c>
       <c r="Z58">
-        <v>193.833333333333</v>
+        <v>263.61111111111097</v>
       </c>
       <c r="AB58">
-        <v>200.083333333333</v>
+        <v>260.059523809523</v>
       </c>
       <c r="AC58">
-        <v>196.041666666666</v>
+        <v>259.86111111111097</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59">
-        <v>208.861111111111</v>
+        <v>259.35714285714198</v>
       </c>
       <c r="B59">
-        <v>191.75</v>
+        <v>251.5</v>
       </c>
       <c r="D59">
-        <v>209.520833333333</v>
+        <v>255.98809523809501</v>
       </c>
       <c r="E59">
-        <v>190.802083333333</v>
+        <v>259.02777777777698</v>
       </c>
       <c r="G59">
-        <v>202.305555555555</v>
+        <v>259.36904761904702</v>
       </c>
       <c r="H59">
-        <v>200.583333333333</v>
+        <v>252.361111111111</v>
       </c>
       <c r="J59">
-        <v>204.652777777777</v>
+        <v>255.23809523809501</v>
       </c>
       <c r="K59">
-        <v>202.145833333333</v>
+        <v>258.666666666666</v>
       </c>
       <c r="M59">
-        <v>209.270833333333</v>
+        <v>257.5</v>
       </c>
       <c r="N59">
-        <v>189.677083333333</v>
+        <v>256.83333333333297</v>
       </c>
       <c r="P59">
-        <v>202.958333333333</v>
+        <v>257.32142857142799</v>
       </c>
       <c r="Q59">
-        <v>200.645833333333</v>
+        <v>257.80555555555497</v>
       </c>
       <c r="S59">
-        <v>205.930555555555</v>
+        <v>260.67857142857099</v>
       </c>
       <c r="T59">
-        <v>194.479166666666</v>
+        <v>249.305555555555</v>
       </c>
       <c r="V59">
-        <v>200.597222222222</v>
+        <v>258.15476190476102</v>
       </c>
       <c r="W59">
-        <v>202.104166666666</v>
+        <v>255.972222222222</v>
       </c>
       <c r="Y59">
-        <v>205.645833333333</v>
+        <v>255.35714285714201</v>
       </c>
       <c r="Z59">
-        <v>196.989583333333</v>
+        <v>261.388888888888</v>
       </c>
       <c r="AB59">
-        <v>204.034722222222</v>
+        <v>257.32142857142799</v>
       </c>
       <c r="AC59">
-        <v>199.239583333333</v>
+        <v>257.916666666666</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60">
-        <v>212.694444444444</v>
+        <v>257.15476190476102</v>
       </c>
       <c r="B60">
-        <v>194.75</v>
+        <v>248.75</v>
       </c>
       <c r="D60">
-        <v>212.548611111111</v>
+        <v>253.78571428571399</v>
       </c>
       <c r="E60">
-        <v>194.34375</v>
+        <v>256.944444444444</v>
       </c>
       <c r="G60">
-        <v>205.506944444444</v>
+        <v>256.86904761904702</v>
       </c>
       <c r="H60">
-        <v>204.114583333333</v>
+        <v>250.416666666666</v>
       </c>
       <c r="J60">
-        <v>208.173611111111</v>
+        <v>252.97619047619</v>
       </c>
       <c r="K60">
-        <v>205.15625</v>
+        <v>256.166666666666</v>
       </c>
       <c r="M60">
-        <v>213.340277777777</v>
+        <v>255.059523809523</v>
       </c>
       <c r="N60">
-        <v>192.03125</v>
+        <v>254.194444444444</v>
       </c>
       <c r="P60">
-        <v>206.0625</v>
+        <v>254.82142857142799</v>
       </c>
       <c r="Q60">
-        <v>204.03125</v>
+        <v>255.416666666666</v>
       </c>
       <c r="S60">
-        <v>208.6875</v>
+        <v>258.36904761904702</v>
       </c>
       <c r="T60">
-        <v>198.385416666666</v>
+        <v>246.805555555555</v>
       </c>
       <c r="V60">
-        <v>203.597222222222</v>
+        <v>255.53571428571399</v>
       </c>
       <c r="W60">
-        <v>206.229166666666</v>
+        <v>253.75</v>
       </c>
       <c r="Y60">
-        <v>208.451388888888</v>
+        <v>252.79761904761901</v>
       </c>
       <c r="Z60">
-        <v>200.78125</v>
+        <v>259.02777777777698</v>
       </c>
       <c r="AB60">
-        <v>207.013888888888</v>
+        <v>254.52380952380901</v>
       </c>
       <c r="AC60">
-        <v>203.3125</v>
+        <v>256.11111111111097</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61">
-        <v>216.152777777777</v>
+        <v>255.13095238095201</v>
       </c>
       <c r="B61">
-        <v>198.5625</v>
+        <v>245.138888888888</v>
       </c>
       <c r="D61">
-        <v>215.791666666666</v>
+        <v>251.46428571428501</v>
       </c>
       <c r="E61">
-        <v>197.645833333333</v>
+        <v>254.583333333333</v>
       </c>
       <c r="G61">
-        <v>208.465277777777</v>
+        <v>254.46428571428501</v>
       </c>
       <c r="H61">
-        <v>207.552083333333</v>
+        <v>247.916666666666</v>
       </c>
       <c r="J61">
-        <v>211.798611111111</v>
+        <v>251.13095238095201</v>
       </c>
       <c r="K61">
-        <v>208.302083333333</v>
+        <v>252.805555555555</v>
       </c>
       <c r="M61">
-        <v>216.847222222222</v>
+        <v>252.559523809523</v>
       </c>
       <c r="N61">
-        <v>195.0625</v>
+        <v>252.25</v>
       </c>
       <c r="P61">
-        <v>209.284722222222</v>
+        <v>252.02380952380901</v>
       </c>
       <c r="Q61">
-        <v>207.614583333333</v>
+        <v>253.611111111111</v>
       </c>
       <c r="S61">
-        <v>211.708333333333</v>
+        <v>255.892857142857</v>
       </c>
       <c r="T61">
-        <v>202.229166666666</v>
+        <v>244.583333333333</v>
       </c>
       <c r="V61">
-        <v>206.819444444444</v>
+        <v>252.97619047619</v>
       </c>
       <c r="W61">
-        <v>209.604166666666</v>
+        <v>251.388888888888</v>
       </c>
       <c r="Y61">
-        <v>211.229166666666</v>
+        <v>250.059523809523</v>
       </c>
       <c r="Z61">
-        <v>205.072916666666</v>
+        <v>258.194444444444</v>
       </c>
       <c r="AB61">
-        <v>211.041666666666</v>
+        <v>251.96428571428501</v>
       </c>
       <c r="AC61">
-        <v>205.9375</v>
+        <v>253.75</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62">
-        <v>219.25</v>
+        <v>252.15476190476099</v>
       </c>
       <c r="B62">
-        <v>202.041666666666</v>
+        <v>243.75</v>
       </c>
       <c r="D62">
-        <v>218.9375</v>
+        <v>249.10714285714201</v>
       </c>
       <c r="E62">
-        <v>201.385416666666</v>
+        <v>252.083333333333</v>
       </c>
       <c r="G62">
-        <v>212.715277777777</v>
+        <v>252.26190476190399</v>
       </c>
       <c r="H62">
-        <v>209.71875</v>
+        <v>244.722222222222</v>
       </c>
       <c r="J62">
-        <v>214.444444444444</v>
+        <v>249.04761904761901</v>
       </c>
       <c r="K62">
-        <v>211.666666666666</v>
+        <v>250</v>
       </c>
       <c r="M62">
-        <v>220.076388888888</v>
+        <v>249.88095238095201</v>
       </c>
       <c r="N62">
-        <v>198.34375</v>
+        <v>250.277777777777</v>
       </c>
       <c r="P62">
-        <v>212.729166666666</v>
+        <v>249.76190476190399</v>
       </c>
       <c r="Q62">
-        <v>210.739583333333</v>
+        <v>250.555555555555</v>
       </c>
       <c r="S62">
-        <v>215.548611111111</v>
+        <v>253.63095238095201</v>
       </c>
       <c r="T62">
-        <v>205.385416666666</v>
+        <v>241.527777777777</v>
       </c>
       <c r="V62">
-        <v>209.291666666666</v>
+        <v>250.23809523809501</v>
       </c>
       <c r="W62">
-        <v>213.354166666666</v>
+        <v>249.444444444444</v>
       </c>
       <c r="Y62">
-        <v>214.708333333333</v>
+        <v>247.619047619047</v>
       </c>
       <c r="Z62">
-        <v>208.395833333333</v>
+        <v>255.555555555555</v>
       </c>
       <c r="AB62">
-        <v>214.791666666666</v>
+        <v>249.40476190476099</v>
       </c>
       <c r="AC62">
-        <v>208.229166666666</v>
+        <v>251.388888888888</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63">
-        <v>222.576388888888</v>
+        <v>249.65476190476099</v>
       </c>
       <c r="B63">
-        <v>205.552083333333</v>
+        <v>241.805555555555</v>
       </c>
       <c r="D63">
-        <v>222.111111111111</v>
+        <v>246.25</v>
       </c>
       <c r="E63">
-        <v>205.25</v>
+        <v>250.416666666666</v>
       </c>
       <c r="G63">
-        <v>216.159722222222</v>
+        <v>249.94047619047601</v>
       </c>
       <c r="H63">
-        <v>213.09375</v>
+        <v>241.805555555555</v>
       </c>
       <c r="J63">
-        <v>217.736111111111</v>
+        <v>247.34523809523799</v>
       </c>
       <c r="K63">
-        <v>214.5625</v>
+        <v>247.083333333333</v>
       </c>
       <c r="M63">
-        <v>223.388888888888</v>
+        <v>247.619047619047</v>
       </c>
       <c r="N63">
-        <v>201.958333333333</v>
+        <v>247.222222222222</v>
       </c>
       <c r="P63">
-        <v>216.125</v>
+        <v>247.38095238095201</v>
       </c>
       <c r="Q63">
-        <v>213.895833333333</v>
+        <v>247.777777777777</v>
       </c>
       <c r="S63">
-        <v>218.104166666666</v>
+        <v>250.77380952380901</v>
       </c>
       <c r="T63">
-        <v>209.677083333333</v>
+        <v>239.861111111111</v>
       </c>
       <c r="V63">
-        <v>212.270833333333</v>
+        <v>247.38095238095201</v>
       </c>
       <c r="W63">
-        <v>216.84375</v>
+        <v>247.777777777777</v>
       </c>
       <c r="Y63">
-        <v>217.840277777777</v>
+        <v>245</v>
       </c>
       <c r="Z63">
-        <v>211.78125</v>
+        <v>253.333333333333</v>
       </c>
       <c r="AB63">
-        <v>217.909722222222</v>
+        <v>247.02380952380901</v>
       </c>
       <c r="AC63">
-        <v>212.177083333333</v>
+        <v>248.611111111111</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64">
-        <v>225.347222222222</v>
+        <v>247.09523809523799</v>
       </c>
       <c r="B64">
-        <v>209.354166666666</v>
+        <v>239.444444444444</v>
       </c>
       <c r="D64">
-        <v>225.104166666666</v>
+        <v>243.92857142857099</v>
       </c>
       <c r="E64">
-        <v>208.760416666666</v>
+        <v>247.5</v>
       </c>
       <c r="G64">
-        <v>219.597222222222</v>
+        <v>247.142857142857</v>
       </c>
       <c r="H64">
-        <v>215.9375</v>
+        <v>240</v>
       </c>
       <c r="J64">
-        <v>220.916666666666</v>
+        <v>245.142857142857</v>
       </c>
       <c r="K64">
-        <v>217.708333333333</v>
+        <v>244.444444444444</v>
       </c>
       <c r="M64">
-        <v>226.527777777777</v>
+        <v>245.17857142857099</v>
       </c>
       <c r="N64">
-        <v>205.541666666666</v>
+        <v>244.583333333333</v>
       </c>
       <c r="P64">
-        <v>219.861111111111</v>
+        <v>244.76190476190399</v>
       </c>
       <c r="Q64">
-        <v>217</v>
+        <v>245.555555555555</v>
       </c>
       <c r="S64">
-        <v>221.583333333333</v>
+        <v>247.916666666666</v>
       </c>
       <c r="T64">
-        <v>213.041666666666</v>
+        <v>238.194444444444</v>
       </c>
       <c r="V64">
-        <v>215.361111111111</v>
+        <v>244.82142857142799</v>
       </c>
       <c r="W64">
-        <v>220.416666666666</v>
+        <v>245.416666666666</v>
       </c>
       <c r="Y64">
-        <v>220.895833333333</v>
+        <v>242.916666666666</v>
       </c>
       <c r="Z64">
-        <v>215.447916666666</v>
+        <v>249.861111111111</v>
       </c>
       <c r="AB64">
-        <v>221.041666666666</v>
+        <v>244.40476190476099</v>
       </c>
       <c r="AC64">
-        <v>215.6875</v>
+        <v>246.388888888888</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65">
-        <v>227.75</v>
+        <v>244.47619047619</v>
       </c>
       <c r="B65">
-        <v>212.166666666666</v>
+        <v>237.222222222222</v>
       </c>
       <c r="D65">
-        <v>228.993055555555</v>
+        <v>241.25</v>
       </c>
       <c r="E65">
-        <v>211.760416666666</v>
+        <v>245.416666666666</v>
       </c>
       <c r="G65">
-        <v>223.0625</v>
+        <v>244.40476190476099</v>
       </c>
       <c r="H65">
-        <v>219.15625</v>
+        <v>238.055555555555</v>
       </c>
       <c r="J65">
-        <v>223.965277777777</v>
+        <v>242.67857142857099</v>
       </c>
       <c r="K65">
-        <v>221.052083333333</v>
+        <v>242.083333333333</v>
       </c>
       <c r="M65">
-        <v>229.791666666666</v>
+        <v>242.5</v>
       </c>
       <c r="N65">
-        <v>208.395833333333</v>
+        <v>242.5</v>
       </c>
       <c r="P65">
-        <v>223.541666666666</v>
+        <v>242.5</v>
       </c>
       <c r="Q65">
-        <v>220.1875</v>
+        <v>242.5</v>
       </c>
       <c r="S65">
-        <v>224.666666666666</v>
+        <v>245.53571428571399</v>
       </c>
       <c r="T65">
-        <v>217.291666666666</v>
+        <v>235.416666666666</v>
       </c>
       <c r="V65">
-        <v>218.875</v>
+        <v>242.5</v>
       </c>
       <c r="W65">
-        <v>222.604166666666</v>
+        <v>242.5</v>
       </c>
       <c r="Y65">
-        <v>223.888888888888</v>
+        <v>240.833333333333</v>
       </c>
       <c r="Z65">
-        <v>219.25</v>
+        <v>246.388888888888</v>
       </c>
       <c r="AB65">
-        <v>224.791666666666</v>
+        <v>241.90476190476099</v>
       </c>
       <c r="AC65">
-        <v>218.4375</v>
+        <v>243.888888888888</v>
       </c>
     </row>
     <row r="66" spans="1:29">
       <c r="A66">
-        <v>230.520833333333</v>
+        <v>242.09523809523799</v>
       </c>
       <c r="B66">
-        <v>215.46875</v>
+        <v>234.444444444444</v>
       </c>
       <c r="D66">
-        <v>232.027777777777</v>
+        <v>238.51190476190399</v>
       </c>
       <c r="E66">
-        <v>215.791666666666</v>
+        <v>243.472222222222</v>
       </c>
       <c r="G66">
-        <v>226.256944444444</v>
+        <v>241.84523809523799</v>
       </c>
       <c r="H66">
-        <v>222.822916666666</v>
+        <v>235.694444444444</v>
       </c>
       <c r="J66">
-        <v>227.833333333333</v>
+        <v>239.94047619047601</v>
       </c>
       <c r="K66">
-        <v>224.125</v>
+        <v>240.138888888888</v>
       </c>
       <c r="M66">
-        <v>232.458333333333</v>
+        <v>240.17857142857099</v>
       </c>
       <c r="N66">
-        <v>212.4375</v>
+        <v>239.583333333333</v>
       </c>
       <c r="P66">
-        <v>226.888888888888</v>
+        <v>240.059523809523</v>
       </c>
       <c r="Q66">
-        <v>224.25</v>
+        <v>239.861111111111</v>
       </c>
       <c r="S66">
-        <v>228.118055555555</v>
+        <v>242.916666666666</v>
       </c>
       <c r="T66">
-        <v>220.28125</v>
+        <v>233.194444444444</v>
       </c>
       <c r="V66">
-        <v>221.972222222222</v>
+        <v>240.17857142857099</v>
       </c>
       <c r="W66">
-        <v>225.916666666666</v>
+        <v>239.583333333333</v>
       </c>
       <c r="Y66">
-        <v>226.569444444444</v>
+        <v>238.27380952380901</v>
       </c>
       <c r="Z66">
-        <v>222.895833333333</v>
+        <v>244.027777777777</v>
       </c>
       <c r="AB66">
-        <v>228.423611111111</v>
+        <v>239.583333333333</v>
       </c>
       <c r="AC66">
-        <v>220.989583333333</v>
+        <v>240.972222222222</v>
       </c>
     </row>
     <row r="67" spans="1:29">
       <c r="A67">
-        <v>234.222222222222</v>
+        <v>239.65476190476099</v>
       </c>
       <c r="B67">
-        <v>218.458333333333</v>
+        <v>231.805555555555</v>
       </c>
       <c r="D67">
-        <v>234.701388888888</v>
+        <v>236.07142857142799</v>
       </c>
       <c r="E67">
-        <v>220.614583333333</v>
+        <v>240.833333333333</v>
       </c>
       <c r="G67">
-        <v>229.854166666666</v>
+        <v>239.34523809523799</v>
       </c>
       <c r="H67">
-        <v>225.71875</v>
+        <v>233.194444444444</v>
       </c>
       <c r="J67">
-        <v>230.965277777777</v>
+        <v>237.32142857142799</v>
       </c>
       <c r="K67">
-        <v>227.427083333333</v>
+        <v>237.916666666666</v>
       </c>
       <c r="M67">
-        <v>234.416666666666</v>
+        <v>237.5</v>
       </c>
       <c r="N67">
-        <v>216.083333333333</v>
+        <v>237.5</v>
       </c>
       <c r="P67">
-        <v>230.506944444444</v>
+        <v>237.44047619047601</v>
       </c>
       <c r="Q67">
-        <v>226.572916666666</v>
+        <v>237.638888888888</v>
       </c>
       <c r="S67">
-        <v>231.625</v>
+        <v>240.416666666666</v>
       </c>
       <c r="T67">
-        <v>223.729166666666</v>
+        <v>230.694444444444</v>
       </c>
       <c r="V67">
-        <v>225.208333333333</v>
+        <v>237.38095238095201</v>
       </c>
       <c r="W67">
-        <v>229.104166666666</v>
+        <v>237.777777777777</v>
       </c>
       <c r="Y67">
-        <v>229.8125</v>
+        <v>236.07142857142799</v>
       </c>
       <c r="Z67">
-        <v>226.53125</v>
+        <v>240.833333333333</v>
       </c>
       <c r="AB67">
-        <v>231.708333333333</v>
+        <v>237.38095238095201</v>
       </c>
       <c r="AC67">
-        <v>224.645833333333</v>
+        <v>237.777777777777</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68">
-        <v>237.444444444444</v>
+        <v>236.97619047619</v>
       </c>
       <c r="B68">
-        <v>221.958333333333</v>
+        <v>229.722222222222</v>
       </c>
       <c r="D68">
-        <v>237.902777777777</v>
+        <v>233.75</v>
       </c>
       <c r="E68">
-        <v>224.0625</v>
+        <v>237.916666666666</v>
       </c>
       <c r="G68">
-        <v>232.743055555555</v>
+        <v>236.78571428571399</v>
       </c>
       <c r="H68">
-        <v>229.260416666666</v>
+        <v>230.833333333333</v>
       </c>
       <c r="J68">
+        <v>234.642857142857</v>
+      </c>
+      <c r="K68">
+        <v>235.833333333333</v>
+      </c>
+      <c r="M68">
+        <v>235.23809523809501</v>
+      </c>
+      <c r="N68">
+        <v>234.444444444444</v>
+      </c>
+      <c r="P68">
+        <v>234.642857142857</v>
+      </c>
+      <c r="Q68">
+        <v>235.833333333333</v>
+      </c>
+      <c r="S68">
+        <v>237.73809523809501</v>
+      </c>
+      <c r="T68">
+        <v>228.611111111111</v>
+      </c>
+      <c r="V68">
         <v>235</v>
       </c>
-      <c r="K68">
-        <v>229.583333333333</v>
-      </c>
-      <c r="M68">
-        <v>237.0625</v>
-      </c>
-      <c r="N68">
-        <v>218.989583333333</v>
-      </c>
-      <c r="P68">
-        <v>233.569444444444</v>
-      </c>
-      <c r="Q68">
-        <v>230.0625</v>
-      </c>
-      <c r="S68">
-        <v>234.972222222222</v>
-      </c>
-      <c r="T68">
-        <v>227.166666666666</v>
-      </c>
-      <c r="V68">
-        <v>228.152777777777</v>
-      </c>
       <c r="W68">
-        <v>233.104166666666</v>
+        <v>235</v>
       </c>
       <c r="Y68">
-        <v>232.875</v>
+        <v>233.392857142857</v>
       </c>
       <c r="Z68">
-        <v>229.8125</v>
+        <v>238.75</v>
       </c>
       <c r="AB68">
-        <v>235.048611111111</v>
+        <v>235.29761904761901</v>
       </c>
       <c r="AC68">
-        <v>227.677083333333</v>
+        <v>234.305555555555</v>
       </c>
     </row>
     <row r="69" spans="1:29">
       <c r="A69">
-        <v>240.868055555555</v>
+        <v>234.71428571428501</v>
       </c>
       <c r="B69">
-        <v>225.53125</v>
+        <v>226.666666666666</v>
       </c>
       <c r="D69">
-        <v>240.805555555555</v>
+        <v>231.01190476190399</v>
       </c>
       <c r="E69">
-        <v>227.166666666666</v>
+        <v>235.972222222222</v>
       </c>
       <c r="G69">
-        <v>236.027777777777</v>
+        <v>234.10714285714201</v>
       </c>
       <c r="H69">
-        <v>232.333333333333</v>
+        <v>228.75</v>
       </c>
       <c r="J69">
-        <v>238.458333333333</v>
+        <v>232.26190476190399</v>
       </c>
       <c r="K69">
-        <v>232.395833333333</v>
+        <v>233.055555555555</v>
       </c>
       <c r="M69">
-        <v>239.694444444444</v>
+        <v>232.559523809523</v>
       </c>
       <c r="N69">
-        <v>223.625</v>
+        <v>232.361111111111</v>
       </c>
       <c r="P69">
-        <v>236.416666666666</v>
+        <v>232.26190476190399</v>
       </c>
       <c r="Q69">
-        <v>232.708333333333</v>
+        <v>233.055555555555</v>
       </c>
       <c r="S69">
-        <v>238.416666666666</v>
+        <v>235.416666666666</v>
       </c>
       <c r="T69">
-        <v>230.791666666666</v>
+        <v>225.694444444444</v>
       </c>
       <c r="V69">
-        <v>232.722222222222</v>
+        <v>232.67857142857099</v>
       </c>
       <c r="W69">
-        <v>235</v>
+        <v>232.083333333333</v>
       </c>
       <c r="Y69">
-        <v>235.9375</v>
+        <v>230.892857142857</v>
       </c>
       <c r="Z69">
-        <v>232.927083333333</v>
+        <v>236.25</v>
       </c>
       <c r="AB69">
-        <v>238.083333333333</v>
+        <v>233.03571428571399</v>
       </c>
       <c r="AC69">
-        <v>231.333333333333</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70">
-        <v>244.166666666666</v>
+        <v>231.97619047619</v>
       </c>
       <c r="B70">
-        <v>228.166666666666</v>
+        <v>224.722222222222</v>
       </c>
       <c r="D70">
-        <v>244.354166666666</v>
+        <v>228.27380952380901</v>
       </c>
       <c r="E70">
-        <v>229.84375</v>
+        <v>234.027777777777</v>
       </c>
       <c r="G70">
-        <v>239.645833333333</v>
+        <v>231.666666666666</v>
       </c>
       <c r="H70">
-        <v>234.864583333333</v>
+        <v>226.111111111111</v>
       </c>
       <c r="J70">
-        <v>241.354166666666</v>
+        <v>229.82142857142799</v>
       </c>
       <c r="K70">
-        <v>235.177083333333</v>
+        <v>230.416666666666</v>
       </c>
       <c r="M70">
-        <v>242.465277777777</v>
+        <v>230.119047619047</v>
       </c>
       <c r="N70">
-        <v>228.052083333333</v>
+        <v>229.722222222222</v>
       </c>
       <c r="P70">
-        <v>240.291666666666</v>
+        <v>229.642857142857</v>
       </c>
       <c r="Q70">
-        <v>234.770833333333</v>
+        <v>230.833333333333</v>
       </c>
       <c r="S70">
-        <v>241.611111111111</v>
+        <v>232.79761904761901</v>
       </c>
       <c r="T70">
-        <v>234.083333333333</v>
+        <v>223.472222222222</v>
       </c>
       <c r="V70">
-        <v>235.6875</v>
+        <v>229.88095238095201</v>
       </c>
       <c r="W70">
-        <v>238.59375</v>
+        <v>230.277777777777</v>
       </c>
       <c r="Y70">
-        <v>238.909722222222</v>
+        <v>228.45238095238</v>
       </c>
       <c r="Z70">
-        <v>236.677083333333</v>
+        <v>233.611111111111</v>
       </c>
       <c r="AB70">
-        <v>242.229166666666</v>
+        <v>230.53571428571399</v>
       </c>
       <c r="AC70">
-        <v>233.239583333333</v>
+        <v>228.75</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71">
-        <v>246.902777777777</v>
+        <v>229.46428571428501</v>
       </c>
       <c r="B71">
-        <v>232.395833333333</v>
+        <v>222.916666666666</v>
       </c>
       <c r="D71">
-        <v>246.909722222222</v>
+        <v>226.13095238095201</v>
       </c>
       <c r="E71">
-        <v>233.84375</v>
+        <v>230.694444444444</v>
       </c>
       <c r="G71">
-        <v>242.659722222222</v>
+        <v>228.92857142857099</v>
       </c>
       <c r="H71">
-        <v>238.510416666666</v>
+        <v>224.166666666666</v>
       </c>
       <c r="J71">
-        <v>243.777777777777</v>
+        <v>227.67857142857099</v>
       </c>
       <c r="K71">
-        <v>239.166666666666</v>
+        <v>227.083333333333</v>
       </c>
       <c r="M71">
-        <v>245.25</v>
+        <v>227.67857142857099</v>
       </c>
       <c r="N71">
-        <v>231.958333333333</v>
+        <v>227.083333333333</v>
       </c>
       <c r="P71">
-        <v>243.854166666666</v>
+        <v>227.38095238095201</v>
       </c>
       <c r="Q71">
-        <v>237.427083333333</v>
+        <v>227.777777777777</v>
       </c>
       <c r="S71">
-        <v>244.583333333333</v>
+        <v>230.059523809523</v>
       </c>
       <c r="T71">
-        <v>237.333333333333</v>
+        <v>221.527777777777</v>
       </c>
       <c r="V71">
-        <v>238.895833333333</v>
+        <v>227.619047619047</v>
       </c>
       <c r="W71">
-        <v>241.739583333333</v>
+        <v>227.222222222222</v>
       </c>
       <c r="Y71">
-        <v>242.527777777777</v>
+        <v>225.892857142857</v>
       </c>
       <c r="Z71">
-        <v>239.375</v>
+        <v>231.25</v>
       </c>
       <c r="AB71">
-        <v>245.534722222222</v>
+        <v>227.916666666666</v>
       </c>
       <c r="AC71">
-        <v>235.864583333333</v>
+        <v>226.527777777777</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72">
-        <v>250.069444444444</v>
+        <v>226.72619047619</v>
       </c>
       <c r="B72">
-        <v>235.0625</v>
+        <v>220.972222222222</v>
       </c>
       <c r="D72">
-        <v>250.020833333333</v>
+        <v>223.63095238095201</v>
       </c>
       <c r="E72">
-        <v>236.677083333333</v>
+        <v>228.194444444444</v>
       </c>
       <c r="G72">
-        <v>245.701388888888</v>
+        <v>226.369047619047</v>
       </c>
       <c r="H72">
-        <v>241.572916666666</v>
+        <v>221.805555555555</v>
       </c>
       <c r="J72">
-        <v>246.409722222222</v>
+        <v>225.17857142857099</v>
       </c>
       <c r="K72">
-        <v>242.71875</v>
+        <v>224.583333333333</v>
       </c>
       <c r="M72">
-        <v>248.8125</v>
+        <v>225.119047619047</v>
       </c>
       <c r="N72">
-        <v>233.989583333333</v>
+        <v>224.722222222222</v>
       </c>
       <c r="P72">
-        <v>247.048611111111</v>
+        <v>224.583333333333</v>
       </c>
       <c r="Q72">
-        <v>240.34375</v>
+        <v>225.972222222222</v>
       </c>
       <c r="S72">
-        <v>248.048611111111</v>
+        <v>227.32142857142799</v>
       </c>
       <c r="T72">
-        <v>240.552083333333</v>
+        <v>219.583333333333</v>
       </c>
       <c r="V72">
-        <v>242.388888888888</v>
+        <v>225.059523809523</v>
       </c>
       <c r="W72">
-        <v>245.166666666666</v>
+        <v>224.861111111111</v>
       </c>
       <c r="Y72">
-        <v>245.222222222222</v>
+        <v>223.21428571428501</v>
       </c>
       <c r="Z72">
-        <v>242.583333333333</v>
+        <v>229.166666666666</v>
       </c>
       <c r="AB72">
-        <v>248.333333333333</v>
+        <v>225</v>
       </c>
       <c r="AC72">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73">
-        <v>252.888888888888</v>
+        <v>224.40476190476099</v>
       </c>
       <c r="B73">
-        <v>238.166666666666</v>
+        <v>218.055555555555</v>
       </c>
       <c r="D73">
-        <v>252.333333333333</v>
+        <v>221.07142857142799</v>
       </c>
       <c r="E73">
-        <v>239.5</v>
+        <v>225.833333333333</v>
       </c>
       <c r="G73">
-        <v>248.555555555555</v>
+        <v>223.63095238095201</v>
       </c>
       <c r="H73">
-        <v>244.583333333333</v>
+        <v>219.861111111111</v>
       </c>
       <c r="J73">
-        <v>249.222222222222</v>
+        <v>222.619047619047</v>
       </c>
       <c r="K73">
-        <v>246.041666666666</v>
+        <v>222.222222222222</v>
       </c>
       <c r="M73">
-        <v>252.340277777777</v>
+        <v>222.79761904761901</v>
       </c>
       <c r="N73">
-        <v>236.78125</v>
+        <v>221.805555555555</v>
       </c>
       <c r="P73">
-        <v>249.701388888888</v>
+        <v>221.72619047619</v>
       </c>
       <c r="Q73">
-        <v>244.072916666666</v>
+        <v>224.305555555555</v>
       </c>
       <c r="S73">
-        <v>250.618055555555</v>
+        <v>224.52380952380901</v>
       </c>
       <c r="T73">
-        <v>244.197916666666</v>
+        <v>217.777777777777</v>
       </c>
       <c r="V73">
-        <v>245.048611111111</v>
+        <v>222.559523809523</v>
       </c>
       <c r="W73">
-        <v>248.96875</v>
+        <v>222.361111111111</v>
       </c>
       <c r="Y73">
-        <v>247.979166666666</v>
+        <v>220.47619047619</v>
       </c>
       <c r="Z73">
-        <v>246.364583333333</v>
+        <v>227.222222222222</v>
       </c>
       <c r="AB73">
-        <v>251.444444444444</v>
+        <v>222.44047619047601</v>
       </c>
       <c r="AC73">
-        <v>242.041666666666</v>
+        <v>222.638888888888</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74">
-        <v>255.895833333333</v>
+        <v>221.78571428571399</v>
       </c>
       <c r="B74">
-        <v>240.072916666666</v>
+        <v>215.833333333333</v>
       </c>
       <c r="D74">
-        <v>254.777777777777</v>
+        <v>218.57142857142799</v>
       </c>
       <c r="E74">
-        <v>242.875</v>
+        <v>223.333333333333</v>
       </c>
       <c r="G74">
-        <v>251.555555555555</v>
+        <v>221.25</v>
       </c>
       <c r="H74">
-        <v>247.583333333333</v>
+        <v>217.083333333333</v>
       </c>
       <c r="J74">
-        <v>252.777777777777</v>
+        <v>219.94047619047601</v>
       </c>
       <c r="K74">
-        <v>248.25</v>
+        <v>220.138888888888</v>
       </c>
       <c r="M74">
-        <v>255.194444444444</v>
+        <v>219.94047619047601</v>
       </c>
       <c r="N74">
-        <v>238.916666666666</v>
+        <v>220.138888888888</v>
       </c>
       <c r="P74">
-        <v>252.569444444444</v>
+        <v>218.92857142857099</v>
       </c>
       <c r="Q74">
-        <v>247.9375</v>
+        <v>222.5</v>
       </c>
       <c r="S74">
-        <v>253.1875</v>
+        <v>221.96428571428501</v>
       </c>
       <c r="T74">
-        <v>247.34375</v>
+        <v>215.416666666666</v>
       </c>
       <c r="V74">
-        <v>248.3125</v>
+        <v>220.23809523809501</v>
       </c>
       <c r="W74">
-        <v>250.822916666666</v>
+        <v>219.444444444444</v>
       </c>
       <c r="Y74">
-        <v>250.645833333333</v>
+        <v>217.97619047619</v>
       </c>
       <c r="Z74">
-        <v>248.572916666666</v>
+        <v>224.722222222222</v>
       </c>
       <c r="AB74">
-        <v>254.527777777777</v>
+        <v>220.119047619047</v>
       </c>
       <c r="AC74">
-        <v>245.583333333333</v>
+        <v>219.722222222222</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75">
-        <v>258.3125</v>
+        <v>219.28571428571399</v>
       </c>
       <c r="B75">
-        <v>242.989583333333</v>
+        <v>213.333333333333</v>
       </c>
       <c r="D75">
-        <v>257.909722222222</v>
+        <v>216.13095238095201</v>
       </c>
       <c r="E75">
-        <v>245.09375</v>
+        <v>220.694444444444</v>
       </c>
       <c r="G75">
-        <v>254.159722222222</v>
+        <v>218.57142857142799</v>
       </c>
       <c r="H75">
-        <v>250.552083333333</v>
+        <v>215</v>
       </c>
       <c r="J75">
-        <v>255.256944444444</v>
+        <v>217.44047619047601</v>
       </c>
       <c r="K75">
-        <v>251.447916666666</v>
+        <v>217.638888888888</v>
       </c>
       <c r="M75">
-        <v>257.49305555555497</v>
+        <v>217.38095238095201</v>
       </c>
       <c r="N75">
-        <v>240.885416666666</v>
+        <v>217.777777777777</v>
       </c>
       <c r="P75">
-        <v>255.166666666666</v>
+        <v>216.48809523809501</v>
       </c>
       <c r="Q75">
-        <v>251</v>
+        <v>219.861111111111</v>
       </c>
       <c r="S75">
-        <v>256.0625</v>
+        <v>219.28571428571399</v>
       </c>
       <c r="T75">
-        <v>250.072916666666</v>
+        <v>213.333333333333</v>
       </c>
       <c r="V75">
-        <v>250.756944444444</v>
+        <v>217.67857142857099</v>
       </c>
       <c r="W75">
-        <v>254.03125</v>
+        <v>217.083333333333</v>
       </c>
       <c r="Y75">
-        <v>253.840277777777</v>
+        <v>215.47619047619</v>
       </c>
       <c r="Z75">
-        <v>251.489583333333</v>
+        <v>222.222222222222</v>
       </c>
       <c r="AB75">
-        <v>257.1875</v>
+        <v>217.26190476190399</v>
       </c>
       <c r="AC75">
-        <v>248.885416666666</v>
+        <v>218.055555555555</v>
       </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76">
-        <v>260.95833333333297</v>
+        <v>216.72619047619</v>
       </c>
       <c r="B76">
-        <v>245.729166666666</v>
+        <v>210.972222222222</v>
       </c>
       <c r="D76">
-        <v>260.388888888888</v>
+        <v>214.04761904761901</v>
       </c>
       <c r="E76">
-        <v>248.041666666666</v>
+        <v>217.222222222222</v>
       </c>
       <c r="G76">
-        <v>256.99305555555497</v>
+        <v>216.07142857142799</v>
       </c>
       <c r="H76">
-        <v>253.84375</v>
+        <v>212.5</v>
       </c>
       <c r="J76">
-        <v>257.666666666666</v>
+        <v>215.23809523809501</v>
       </c>
       <c r="K76">
-        <v>253.5</v>
+        <v>214.444444444444</v>
       </c>
       <c r="M76">
-        <v>260.006944444444</v>
+        <v>215</v>
       </c>
       <c r="N76">
-        <v>242.447916666666</v>
+        <v>215</v>
       </c>
       <c r="P76">
-        <v>257.90277777777698</v>
+        <v>213.92857142857099</v>
       </c>
       <c r="Q76">
-        <v>253.5625</v>
+        <v>217.5</v>
       </c>
       <c r="S76">
-        <v>258.67361111111097</v>
+        <v>216.42857142857099</v>
       </c>
       <c r="T76">
-        <v>252.739583333333</v>
+        <v>211.666666666666</v>
       </c>
       <c r="V76">
-        <v>253.576388888888</v>
+        <v>215.53571428571399</v>
       </c>
       <c r="W76">
-        <v>257.17708333333297</v>
+        <v>213.75</v>
       </c>
       <c r="Y76">
-        <v>256.166666666666</v>
+        <v>213.09523809523799</v>
       </c>
       <c r="Z76">
-        <v>254.208333333333</v>
+        <v>219.444444444444</v>
       </c>
       <c r="AB76">
-        <v>260.597222222222</v>
+        <v>215.059523809523</v>
       </c>
       <c r="AC76">
-        <v>251.479166666666</v>
+        <v>214.861111111111</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77">
-        <v>263.138888888888</v>
+        <v>213.869047619047</v>
       </c>
       <c r="B77">
-        <v>249.083333333333</v>
+        <v>209.305555555555</v>
       </c>
       <c r="D77">
-        <v>262.659722222222</v>
+        <v>211.25</v>
       </c>
       <c r="E77">
-        <v>250.510416666666</v>
+        <v>215.416666666666</v>
       </c>
       <c r="G77">
-        <v>260.46527777777698</v>
+        <v>213.45238095238</v>
       </c>
       <c r="H77">
-        <v>255.96875</v>
+        <v>210.277777777777</v>
       </c>
       <c r="J77">
-        <v>259.86111111111097</v>
+        <v>213.15476190476099</v>
       </c>
       <c r="K77">
-        <v>255.5</v>
+        <v>210.972222222222</v>
       </c>
       <c r="M77">
-        <v>262.3125</v>
+        <v>212.20238095238</v>
       </c>
       <c r="N77">
-        <v>245.53125</v>
+        <v>213.194444444444</v>
       </c>
       <c r="P77">
-        <v>260.61805555555497</v>
+        <v>211.78571428571399</v>
       </c>
       <c r="Q77">
-        <v>256.98958333333297</v>
+        <v>214.166666666666</v>
       </c>
       <c r="S77">
-        <v>261.39583333333297</v>
+        <v>213.27380952380901</v>
       </c>
       <c r="T77">
-        <v>256.23958333333297</v>
+        <v>210.694444444444</v>
       </c>
       <c r="V77">
-        <v>256.194444444444</v>
+        <v>213.03571428571399</v>
       </c>
       <c r="W77">
-        <v>260</v>
+        <v>211.25</v>
       </c>
       <c r="Y77">
-        <v>258.888888888888</v>
+        <v>210.71428571428501</v>
       </c>
       <c r="Z77">
-        <v>256.875</v>
+        <v>216.666666666666</v>
       </c>
       <c r="AB77">
-        <v>262.86805555555497</v>
+        <v>212.44047619047601</v>
       </c>
       <c r="AC77">
-        <v>253.614583333333</v>
+        <v>212.638888888888</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78">
-        <v>264.916666666666</v>
+        <v>211.19047619047601</v>
       </c>
       <c r="B78">
-        <v>252.166666666666</v>
+        <v>207.222222222222</v>
       </c>
       <c r="D78">
-        <v>264.93055555555497</v>
+        <v>208.92857142857099</v>
       </c>
       <c r="E78">
-        <v>253.479166666666</v>
+        <v>212.5</v>
       </c>
       <c r="G78">
-        <v>261.71527777777698</v>
+        <v>210.833333333333</v>
       </c>
       <c r="H78">
-        <v>259.635416666666</v>
+        <v>208.055555555555</v>
       </c>
       <c r="J78">
-        <v>261.70833333333297</v>
+        <v>210.59523809523799</v>
       </c>
       <c r="K78">
-        <v>257.89583333333297</v>
+        <v>208.611111111111</v>
       </c>
       <c r="M78">
-        <v>264.65277777777698</v>
+        <v>210</v>
       </c>
       <c r="N78">
-        <v>248.645833333333</v>
+        <v>210</v>
       </c>
       <c r="P78">
-        <v>262.784722222222</v>
+        <v>209.10714285714201</v>
       </c>
       <c r="Q78">
-        <v>261.48958333333297</v>
+        <v>212.083333333333</v>
       </c>
       <c r="S78">
-        <v>264.17361111111097</v>
+        <v>210.23809523809501</v>
       </c>
       <c r="T78">
-        <v>259.28125</v>
+        <v>209.444444444444</v>
       </c>
       <c r="V78">
-        <v>258.61111111111097</v>
+        <v>210.65476190476099</v>
       </c>
       <c r="W78">
-        <v>263</v>
+        <v>208.472222222222</v>
       </c>
       <c r="Y78">
-        <v>260.74305555555497</v>
+        <v>207.85714285714201</v>
       </c>
       <c r="Z78">
-        <v>260.09375</v>
+        <v>215</v>
       </c>
       <c r="AB78">
-        <v>265.43055555555497</v>
+        <v>210.119047619047</v>
       </c>
       <c r="AC78">
-        <v>256.27083333333297</v>
+        <v>209.722222222222</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79">
-        <v>266.73611111111097</v>
+        <v>208.57142857142799</v>
       </c>
       <c r="B79">
-        <v>255.4375</v>
+        <v>205</v>
       </c>
       <c r="D79">
-        <v>267.80555555555497</v>
+        <v>206.60714285714201</v>
       </c>
       <c r="E79">
-        <v>255.416666666666</v>
+        <v>209.583333333333</v>
       </c>
       <c r="G79">
-        <v>264.659722222222</v>
+        <v>208.333333333333</v>
       </c>
       <c r="H79">
-        <v>261.09375</v>
+        <v>205.555555555555</v>
       </c>
       <c r="J79">
-        <v>264.409722222222</v>
+        <v>208.45238095238</v>
       </c>
       <c r="K79">
-        <v>260.010416666666</v>
+        <v>205.277777777777</v>
       </c>
       <c r="M79">
-        <v>266.354166666666</v>
+        <v>207.619047619047</v>
       </c>
       <c r="N79">
-        <v>252.177083333333</v>
+        <v>207.222222222222</v>
       </c>
       <c r="P79">
-        <v>264.604166666666</v>
+        <v>206.309523809523</v>
       </c>
       <c r="Q79">
-        <v>265.260416666666</v>
+        <v>210.277777777777</v>
       </c>
       <c r="S79">
-        <v>266.79861111111097</v>
+        <v>207.32142857142799</v>
       </c>
       <c r="T79">
-        <v>261.17708333333297</v>
+        <v>207.916666666666</v>
       </c>
       <c r="V79">
-        <v>261</v>
+        <v>207.79761904761901</v>
       </c>
       <c r="W79">
-        <v>264.75</v>
+        <v>206.805555555555</v>
       </c>
       <c r="Y79">
-        <v>263.68055555555497</v>
+        <v>205.59523809523799</v>
       </c>
       <c r="Z79">
-        <v>262.64583333333297</v>
+        <v>211.944444444444</v>
       </c>
       <c r="AB79">
-        <v>266.979166666666</v>
+        <v>207.79761904761901</v>
       </c>
       <c r="AC79">
-        <v>257.73958333333297</v>
+        <v>206.805555555555</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80">
-        <v>268.826388888888</v>
+        <v>205.77380952380901</v>
       </c>
       <c r="B80">
-        <v>258.760416666666</v>
+        <v>203.194444444444</v>
       </c>
       <c r="D80">
-        <v>269.534722222222</v>
+        <v>204.166666666666</v>
       </c>
       <c r="E80">
-        <v>258.61458333333297</v>
+        <v>206.944444444444</v>
       </c>
       <c r="G80">
-        <v>266.99305555555497</v>
+        <v>205.833333333333</v>
       </c>
       <c r="H80">
-        <v>262.760416666666</v>
+        <v>203.055555555555</v>
       </c>
       <c r="J80">
-        <v>265.756944444444</v>
+        <v>205.892857142857</v>
       </c>
       <c r="K80">
-        <v>262.11458333333297</v>
+        <v>202.916666666666</v>
       </c>
       <c r="M80">
-        <v>267.729166666666</v>
+        <v>205.35714285714201</v>
       </c>
       <c r="N80">
-        <v>255.114583333333</v>
+        <v>204.166666666666</v>
       </c>
       <c r="P80">
-        <v>267.90277777777698</v>
+        <v>203.809523809523</v>
       </c>
       <c r="Q80">
-        <v>267.5625</v>
+        <v>207.777777777777</v>
       </c>
       <c r="S80">
-        <v>269.11805555555497</v>
+        <v>204.46428571428501</v>
       </c>
       <c r="T80">
-        <v>263.697916666666</v>
+        <v>206.25</v>
       </c>
       <c r="V80">
-        <v>263.5625</v>
+        <v>205</v>
       </c>
       <c r="W80">
-        <v>266.86458333333297</v>
+        <v>205</v>
       </c>
       <c r="Y80">
-        <v>265.576388888888</v>
+        <v>203.69047619047601</v>
       </c>
       <c r="Z80">
-        <v>264.59375</v>
+        <v>208.055555555555</v>
       </c>
       <c r="AB80">
-        <v>268.70833333333297</v>
+        <v>205.23809523809501</v>
       </c>
       <c r="AC80">
-        <v>258.39583333333297</v>
+        <v>204.444444444444</v>
       </c>
     </row>
     <row r="81" spans="1:29">
       <c r="A81">
-        <v>270.194444444444</v>
+        <v>203.09523809523799</v>
       </c>
       <c r="B81">
-        <v>261.20833333333297</v>
+        <v>201.111111111111</v>
       </c>
       <c r="D81">
-        <v>271.08333333333297</v>
+        <v>201.84523809523799</v>
       </c>
       <c r="E81">
-        <v>260.625</v>
+        <v>204.027777777777</v>
       </c>
       <c r="G81">
-        <v>268.83333333333297</v>
+        <v>203.15476190476099</v>
       </c>
       <c r="H81">
-        <v>264.625</v>
+        <v>200.972222222222</v>
       </c>
       <c r="J81">
-        <v>268.659722222222</v>
+        <v>203.27380952380901</v>
       </c>
       <c r="K81">
-        <v>263.80208333333297</v>
+        <v>200.694444444444</v>
       </c>
       <c r="M81">
-        <v>269.6875</v>
+        <v>202.67857142857099</v>
       </c>
       <c r="N81">
-        <v>257.635416666666</v>
+        <v>202.083333333333</v>
       </c>
       <c r="P81">
-        <v>270.90277777777698</v>
+        <v>201.42857142857099</v>
       </c>
       <c r="Q81">
-        <v>268.979166666666</v>
+        <v>205</v>
       </c>
       <c r="S81">
-        <v>270.763888888888</v>
+        <v>202.26190476190399</v>
       </c>
       <c r="T81">
-        <v>266.479166666666</v>
+        <v>203.055555555555</v>
       </c>
       <c r="V81">
-        <v>265.27083333333297</v>
+        <v>202.142857142857</v>
       </c>
       <c r="W81">
-        <v>268.135416666666</v>
+        <v>203.333333333333</v>
       </c>
       <c r="Y81">
-        <v>266.597222222222</v>
+        <v>201.72619047619</v>
       </c>
       <c r="Z81">
-        <v>267.89583333333297</v>
+        <v>204.305555555555</v>
       </c>
       <c r="AB81">
-        <v>270.694444444444</v>
+        <v>202.32142857142799</v>
       </c>
       <c r="AC81">
-        <v>259.70833333333297</v>
+        <v>202.916666666666</v>
       </c>
     </row>
     <row r="82" spans="1:29">
       <c r="A82">
-        <v>271.229166666666</v>
+        <v>200</v>
       </c>
       <c r="B82">
-        <v>262.53125</v>
+        <v>200</v>
       </c>
       <c r="D82">
-        <v>271.75</v>
+        <v>200</v>
       </c>
       <c r="E82">
-        <v>263.45833333333297</v>
+        <v>200</v>
       </c>
       <c r="G82">
-        <v>270.59027777777698</v>
+        <v>200</v>
       </c>
       <c r="H82">
-        <v>266.947916666666</v>
+        <v>200</v>
       </c>
       <c r="J82">
-        <v>270.506944444444</v>
+        <v>200</v>
       </c>
       <c r="K82">
-        <v>265.98958333333297</v>
+        <v>200</v>
       </c>
       <c r="M82">
-        <v>270.854166666666</v>
+        <v>200</v>
       </c>
       <c r="N82">
-        <v>259.30208333333297</v>
+        <v>200</v>
       </c>
       <c r="P82">
-        <v>272.694444444444</v>
+        <v>200</v>
       </c>
       <c r="Q82">
-        <v>271.416666666666</v>
+        <v>200</v>
       </c>
       <c r="S82">
-        <v>271.45833333333297</v>
+        <v>200</v>
       </c>
       <c r="T82">
-        <v>268.5625</v>
+        <v>200</v>
       </c>
       <c r="V82">
-        <v>267.576388888888</v>
+        <v>200</v>
       </c>
       <c r="W82">
-        <v>268.92708333333297</v>
+        <v>200</v>
       </c>
       <c r="Y82">
-        <v>268.33333333333297</v>
+        <v>200</v>
       </c>
       <c r="Z82">
-        <v>269.20833333333297</v>
+        <v>200</v>
       </c>
       <c r="AB82">
-        <v>273.0625</v>
+        <v>200</v>
       </c>
       <c r="AC82">
-        <v>261.61458333333297</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
